--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -5077,28 +5077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>688.0116454749873</v>
+        <v>834.6082162890634</v>
       </c>
       <c r="AB2" t="n">
-        <v>941.3678862704744</v>
+        <v>1141.947781842553</v>
       </c>
       <c r="AC2" t="n">
-        <v>851.5250564229459</v>
+        <v>1032.961888277277</v>
       </c>
       <c r="AD2" t="n">
-        <v>688011.6454749873</v>
+        <v>834608.2162890634</v>
       </c>
       <c r="AE2" t="n">
-        <v>941367.8862704744</v>
+        <v>1141947.781842553</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.538273992928657e-07</v>
+        <v>1.375099018867305e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.86197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>851525.0564229459</v>
+        <v>1032961.888277277</v>
       </c>
     </row>
     <row r="3">
@@ -5183,28 +5183,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>508.3302263682765</v>
+        <v>611.9307294226294</v>
       </c>
       <c r="AB3" t="n">
-        <v>695.5198416639203</v>
+        <v>837.2706204745087</v>
       </c>
       <c r="AC3" t="n">
-        <v>629.1404041437437</v>
+        <v>757.3626875731171</v>
       </c>
       <c r="AD3" t="n">
-        <v>508330.2263682765</v>
+        <v>611930.7294226293</v>
       </c>
       <c r="AE3" t="n">
-        <v>695519.8416639202</v>
+        <v>837270.6204745087</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.215182268857329e-06</v>
+        <v>1.751885033801164e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.01302083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>629140.4041437437</v>
+        <v>757362.6875731171</v>
       </c>
     </row>
     <row r="4">
@@ -5289,28 +5289,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>458.0243341183352</v>
+        <v>552.9914693772047</v>
       </c>
       <c r="AB4" t="n">
-        <v>626.6891005482177</v>
+        <v>756.6273246637194</v>
       </c>
       <c r="AC4" t="n">
-        <v>566.8787723555719</v>
+        <v>684.415874730933</v>
       </c>
       <c r="AD4" t="n">
-        <v>458024.3341183352</v>
+        <v>552991.4693772047</v>
       </c>
       <c r="AE4" t="n">
-        <v>626689.1005482177</v>
+        <v>756627.3246637194</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.316484415317074e-06</v>
+        <v>1.897928733436151e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.0859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>566878.7723555719</v>
+        <v>684415.874730933</v>
       </c>
     </row>
     <row r="5">
@@ -5395,28 +5395,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>433.3504494991549</v>
+        <v>528.2322439034527</v>
       </c>
       <c r="AB5" t="n">
-        <v>592.9292030772908</v>
+        <v>722.7506600705949</v>
       </c>
       <c r="AC5" t="n">
-        <v>536.3408721169566</v>
+        <v>653.772351460379</v>
       </c>
       <c r="AD5" t="n">
-        <v>433350.4494991549</v>
+        <v>528232.2439034528</v>
       </c>
       <c r="AE5" t="n">
-        <v>592929.2030772908</v>
+        <v>722750.6600705949</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.371103544975094e-06</v>
+        <v>1.976671188999715e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.16145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>536340.8721169566</v>
+        <v>653772.351460379</v>
       </c>
     </row>
     <row r="6">
@@ -5501,28 +5501,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>414.3940442103927</v>
+        <v>509.3610899607112</v>
       </c>
       <c r="AB6" t="n">
-        <v>566.9922130636279</v>
+        <v>696.9303147095815</v>
       </c>
       <c r="AC6" t="n">
-        <v>512.8792720274035</v>
+        <v>630.4162636215383</v>
       </c>
       <c r="AD6" t="n">
-        <v>414394.0442103927</v>
+        <v>509361.0899607112</v>
       </c>
       <c r="AE6" t="n">
-        <v>566992.2130636279</v>
+        <v>696930.3147095814</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.40618583210159e-06</v>
+        <v>2.02724807391939e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.61458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>512879.2720274036</v>
+        <v>630416.2636215383</v>
       </c>
     </row>
     <row r="7">
@@ -5607,28 +5607,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>407.7410720289366</v>
+        <v>502.5375255786628</v>
       </c>
       <c r="AB7" t="n">
-        <v>557.8893230165418</v>
+        <v>687.5940128876483</v>
       </c>
       <c r="AC7" t="n">
-        <v>504.6451490304249</v>
+        <v>621.9710053419084</v>
       </c>
       <c r="AD7" t="n">
-        <v>407741.0720289366</v>
+        <v>502537.5255786628</v>
       </c>
       <c r="AE7" t="n">
-        <v>557889.3230165418</v>
+        <v>687594.0128876483</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.426889750053156e-06</v>
+        <v>2.057096175665066e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.30208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>504645.1490304249</v>
+        <v>621971.0053419084</v>
       </c>
     </row>
     <row r="8">
@@ -5713,28 +5713,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>401.1823778105292</v>
+        <v>487.5161452739151</v>
       </c>
       <c r="AB8" t="n">
-        <v>548.915428237749</v>
+        <v>667.0410976581643</v>
       </c>
       <c r="AC8" t="n">
-        <v>496.5277101743797</v>
+        <v>603.3796314957287</v>
       </c>
       <c r="AD8" t="n">
-        <v>401182.3778105292</v>
+        <v>487516.1452739151</v>
       </c>
       <c r="AE8" t="n">
-        <v>548915.428237749</v>
+        <v>667041.0976581643</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.447406935937514e-06</v>
+        <v>2.086675072434456e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.00260416666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>496527.7101743797</v>
+        <v>603379.6314957287</v>
       </c>
     </row>
     <row r="9">
@@ -5819,28 +5819,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>389.0025913860974</v>
+        <v>483.8842962818442</v>
       </c>
       <c r="AB9" t="n">
-        <v>532.2505071175876</v>
+        <v>662.0718416413434</v>
       </c>
       <c r="AC9" t="n">
-        <v>481.4532657365627</v>
+        <v>598.8846342987586</v>
       </c>
       <c r="AD9" t="n">
-        <v>389002.5913860974</v>
+        <v>483884.2962818441</v>
       </c>
       <c r="AE9" t="n">
-        <v>532250.5071175876</v>
+        <v>662071.8416413434</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.457933956226304e-06</v>
+        <v>2.101851502972561e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.84635416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>481453.2657365627</v>
+        <v>598884.6342987586</v>
       </c>
     </row>
     <row r="10">
@@ -5925,28 +5925,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>384.4479124784406</v>
+        <v>479.3296173741874</v>
       </c>
       <c r="AB10" t="n">
-        <v>526.0185944978797</v>
+        <v>655.8399290216356</v>
       </c>
       <c r="AC10" t="n">
-        <v>475.8161181107354</v>
+        <v>593.2474866729314</v>
       </c>
       <c r="AD10" t="n">
-        <v>384447.9124784406</v>
+        <v>479329.6173741874</v>
       </c>
       <c r="AE10" t="n">
-        <v>526018.5944978797</v>
+        <v>655839.9290216356</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.468787757632705e-06</v>
+        <v>2.117499042219167e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.69010416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>475816.1181107354</v>
+        <v>593247.4866729314</v>
       </c>
     </row>
     <row r="11">
@@ -6031,28 +6031,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>382.5917361873357</v>
+        <v>477.4734410830825</v>
       </c>
       <c r="AB11" t="n">
-        <v>523.4788922076714</v>
+        <v>653.3002267314271</v>
       </c>
       <c r="AC11" t="n">
-        <v>473.5188014426101</v>
+        <v>590.950170004806</v>
       </c>
       <c r="AD11" t="n">
-        <v>382591.7361873357</v>
+        <v>477473.4410830825</v>
       </c>
       <c r="AE11" t="n">
-        <v>523478.8922076714</v>
+        <v>653300.2267314271</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.47296588763646e-06</v>
+        <v>2.123522503563559e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.63802083333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>473518.8014426101</v>
+        <v>590950.1700048059</v>
       </c>
     </row>
     <row r="12">
@@ -6137,28 +6137,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>378.8214887622692</v>
+        <v>473.7031936580159</v>
       </c>
       <c r="AB12" t="n">
-        <v>518.3202733491181</v>
+        <v>648.1416078728739</v>
       </c>
       <c r="AC12" t="n">
-        <v>468.8525139277501</v>
+        <v>586.283882489946</v>
       </c>
       <c r="AD12" t="n">
-        <v>378821.4887622691</v>
+        <v>473703.1936580159</v>
       </c>
       <c r="AE12" t="n">
-        <v>518320.2733491181</v>
+        <v>648141.6078728739</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.480761951442348e-06</v>
+        <v>2.134761811323487e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.52083333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>468852.5139277501</v>
+        <v>586283.882489946</v>
       </c>
     </row>
     <row r="13">
@@ -6243,28 +6243,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>375.4946395951619</v>
+        <v>461.7430662039763</v>
       </c>
       <c r="AB13" t="n">
-        <v>513.7683315484552</v>
+        <v>631.7772338466729</v>
       </c>
       <c r="AC13" t="n">
-        <v>464.735003063852</v>
+        <v>571.4813013532622</v>
       </c>
       <c r="AD13" t="n">
-        <v>375494.6395951619</v>
+        <v>461743.0662039763</v>
       </c>
       <c r="AE13" t="n">
-        <v>513768.3315484552</v>
+        <v>631777.2338466728</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.485640326698128e-06</v>
+        <v>2.141794791328951e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.45572916666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>464735.003063852</v>
+        <v>571481.3013532622</v>
       </c>
     </row>
     <row r="14">
@@ -6349,28 +6349,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>371.7204079393465</v>
+        <v>457.9688345481609</v>
       </c>
       <c r="AB14" t="n">
-        <v>508.6042612896195</v>
+        <v>626.613163587837</v>
       </c>
       <c r="AC14" t="n">
-        <v>460.0637844227015</v>
+        <v>566.8100827121116</v>
       </c>
       <c r="AD14" t="n">
-        <v>371720.4079393465</v>
+        <v>457968.8345481609</v>
       </c>
       <c r="AE14" t="n">
-        <v>508604.2612896195</v>
+        <v>626613.163587837</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.491405679273141e-06</v>
+        <v>2.150106494971772e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.37760416666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>460063.7844227015</v>
+        <v>566810.0827121115</v>
       </c>
     </row>
     <row r="15">
@@ -6455,28 +6455,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>369.0561835614642</v>
+        <v>455.3046101702785</v>
       </c>
       <c r="AB15" t="n">
-        <v>504.9589519585166</v>
+        <v>622.967854256734</v>
       </c>
       <c r="AC15" t="n">
-        <v>456.7663782979353</v>
+        <v>563.5126765873454</v>
       </c>
       <c r="AD15" t="n">
-        <v>369056.1835614642</v>
+        <v>455304.6101702785</v>
       </c>
       <c r="AE15" t="n">
-        <v>504958.9519585166</v>
+        <v>622967.854256734</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.497521154474167e-06</v>
+        <v>2.158922957945128e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20.29947916666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>456766.3782979352</v>
+        <v>563512.6765873453</v>
       </c>
     </row>
     <row r="16">
@@ -6561,28 +6561,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>364.8927887804347</v>
+        <v>451.1412153892492</v>
       </c>
       <c r="AB16" t="n">
-        <v>499.2624115430976</v>
+        <v>617.2713138413152</v>
       </c>
       <c r="AC16" t="n">
-        <v>451.6135077046192</v>
+        <v>558.3598059940293</v>
       </c>
       <c r="AD16" t="n">
-        <v>364892.7887804348</v>
+        <v>451141.2153892491</v>
       </c>
       <c r="AE16" t="n">
-        <v>499262.4115430976</v>
+        <v>617271.3138413152</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.503286507049181e-06</v>
+        <v>2.167234661587948e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>20.22135416666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>451613.5077046192</v>
+        <v>558359.8059940293</v>
       </c>
     </row>
     <row r="17">
@@ -6667,28 +6667,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>362.1852429944527</v>
+        <v>448.433669603267</v>
       </c>
       <c r="AB17" t="n">
-        <v>495.5578279502271</v>
+        <v>613.5667302484446</v>
       </c>
       <c r="AC17" t="n">
-        <v>448.2624843704365</v>
+        <v>555.0087826598466</v>
       </c>
       <c r="AD17" t="n">
-        <v>362185.2429944527</v>
+        <v>448433.669603267</v>
       </c>
       <c r="AE17" t="n">
-        <v>495557.8279502271</v>
+        <v>613566.7302484446</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.502959725931568e-06</v>
+        <v>2.166763552879449e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>20.22135416666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>448262.4843704365</v>
+        <v>555008.7826598466</v>
       </c>
     </row>
     <row r="18">
@@ -6773,28 +6773,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>362.3276100767872</v>
+        <v>448.5760366856015</v>
       </c>
       <c r="AB18" t="n">
-        <v>495.7526208730696</v>
+        <v>613.7615231712871</v>
       </c>
       <c r="AC18" t="n">
-        <v>448.4386865301165</v>
+        <v>555.1849848195266</v>
       </c>
       <c r="AD18" t="n">
-        <v>362327.6100767871</v>
+        <v>448576.0366856015</v>
       </c>
       <c r="AE18" t="n">
-        <v>495752.6208730696</v>
+        <v>613761.523171287</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.501862675036728e-06</v>
+        <v>2.16518197364377e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>20.234375</v>
       </c>
       <c r="AH18" t="n">
-        <v>448438.6865301165</v>
+        <v>555184.9848195266</v>
       </c>
     </row>
     <row r="19">
@@ -6879,28 +6879,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>360.3202138357683</v>
+        <v>446.5686404445826</v>
       </c>
       <c r="AB19" t="n">
-        <v>493.0060127760356</v>
+        <v>611.0149150742531</v>
       </c>
       <c r="AC19" t="n">
-        <v>445.9542108549747</v>
+        <v>552.7005091443849</v>
       </c>
       <c r="AD19" t="n">
-        <v>360320.2138357683</v>
+        <v>446568.6404445826</v>
       </c>
       <c r="AE19" t="n">
-        <v>493006.0127760356</v>
+        <v>611014.9150742531</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.507814759678948e-06</v>
+        <v>2.173762882262876e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>20.15625</v>
       </c>
       <c r="AH19" t="n">
-        <v>445954.2108549747</v>
+        <v>552700.5091443849</v>
       </c>
     </row>
     <row r="20">
@@ -6985,28 +6985,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>361.1139948740282</v>
+        <v>447.3624214828425</v>
       </c>
       <c r="AB20" t="n">
-        <v>494.0920990117306</v>
+        <v>612.1010013099481</v>
       </c>
       <c r="AC20" t="n">
-        <v>446.9366425446667</v>
+        <v>553.6829408340767</v>
       </c>
       <c r="AD20" t="n">
-        <v>361113.9948740281</v>
+        <v>447362.4214828425</v>
       </c>
       <c r="AE20" t="n">
-        <v>494092.0990117306</v>
+        <v>612101.001309948</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.507114514426922e-06</v>
+        <v>2.172753363601805e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>21</v>
+        <v>20.16927083333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>446936.6425446667</v>
+        <v>553682.9408340767</v>
       </c>
     </row>
   </sheetData>
@@ -7282,28 +7282,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>561.5108492561585</v>
+        <v>687.6868617266322</v>
       </c>
       <c r="AB2" t="n">
-        <v>768.2839160626181</v>
+        <v>940.9235028175272</v>
       </c>
       <c r="AC2" t="n">
-        <v>694.9599774068496</v>
+        <v>851.1230843030519</v>
       </c>
       <c r="AD2" t="n">
-        <v>561510.8492561585</v>
+        <v>687686.8617266322</v>
       </c>
       <c r="AE2" t="n">
-        <v>768283.9160626181</v>
+        <v>940923.5028175272</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.100257772870195e-06</v>
+        <v>1.61073598893667e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.58072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>694959.9774068496</v>
+        <v>851123.0843030519</v>
       </c>
     </row>
     <row r="3">
@@ -7388,28 +7388,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>434.3785213063555</v>
+        <v>535.2170117657997</v>
       </c>
       <c r="AB3" t="n">
-        <v>594.3358562792296</v>
+        <v>732.3075276060681</v>
       </c>
       <c r="AC3" t="n">
-        <v>537.6132763115525</v>
+        <v>662.4171249714144</v>
       </c>
       <c r="AD3" t="n">
-        <v>434378.5213063555</v>
+        <v>535217.0117657997</v>
       </c>
       <c r="AE3" t="n">
-        <v>594335.8562792296</v>
+        <v>732307.5276060681</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.339428497539451e-06</v>
+        <v>1.960872932500243e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.4765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>537613.2763115525</v>
+        <v>662417.1249714145</v>
       </c>
     </row>
     <row r="4">
@@ -7494,28 +7494,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>402.3417416098663</v>
+        <v>494.848149368879</v>
       </c>
       <c r="AB4" t="n">
-        <v>550.5017209355232</v>
+        <v>677.0730691260853</v>
       </c>
       <c r="AC4" t="n">
-        <v>497.962609323454</v>
+        <v>612.4541656867118</v>
       </c>
       <c r="AD4" t="n">
-        <v>402341.7416098663</v>
+        <v>494848.149368879</v>
       </c>
       <c r="AE4" t="n">
-        <v>550501.7209355232</v>
+        <v>677073.0691260854</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.428263338130889e-06</v>
+        <v>2.090923797252426e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.01822916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>497962.609323454</v>
+        <v>612454.1656867118</v>
       </c>
     </row>
     <row r="5">
@@ -7600,28 +7600,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>382.4392423510234</v>
+        <v>474.8603092554645</v>
       </c>
       <c r="AB5" t="n">
-        <v>523.2702434132757</v>
+        <v>649.7248244816402</v>
       </c>
       <c r="AC5" t="n">
-        <v>473.3300657963111</v>
+        <v>587.7159991276302</v>
       </c>
       <c r="AD5" t="n">
-        <v>382439.2423510234</v>
+        <v>474860.3092554645</v>
       </c>
       <c r="AE5" t="n">
-        <v>523270.2434132757</v>
+        <v>649724.8244816402</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.472427220555933e-06</v>
+        <v>2.155578059723681e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.35416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>473330.0657963111</v>
+        <v>587715.9991276301</v>
       </c>
     </row>
     <row r="6">
@@ -7706,28 +7706,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>364.6717573292789</v>
+        <v>457.1780755797405</v>
       </c>
       <c r="AB6" t="n">
-        <v>498.9599865604066</v>
+        <v>625.5312122814206</v>
       </c>
       <c r="AC6" t="n">
-        <v>451.3399457378201</v>
+        <v>565.8313913198514</v>
       </c>
       <c r="AD6" t="n">
-        <v>364671.7573292789</v>
+        <v>457178.0755797405</v>
       </c>
       <c r="AE6" t="n">
-        <v>498959.9865604066</v>
+        <v>625531.2122814206</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.506932517431488e-06</v>
+        <v>2.206092516296356e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.859375</v>
       </c>
       <c r="AH6" t="n">
-        <v>451339.9457378201</v>
+        <v>565831.3913198514</v>
       </c>
     </row>
     <row r="7">
@@ -7812,28 +7812,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>358.4443841001006</v>
+        <v>450.9507023505623</v>
       </c>
       <c r="AB7" t="n">
-        <v>490.4394197759278</v>
+        <v>617.0106454969417</v>
       </c>
       <c r="AC7" t="n">
-        <v>443.6325698885614</v>
+        <v>558.1240154705927</v>
       </c>
       <c r="AD7" t="n">
-        <v>358444.3841001006</v>
+        <v>450950.7023505623</v>
       </c>
       <c r="AE7" t="n">
-        <v>490439.4197759278</v>
+        <v>617010.6454969418</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.526008223891731e-06</v>
+        <v>2.23401863294605e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.59895833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>443632.5698885614</v>
+        <v>558124.0154705927</v>
       </c>
     </row>
     <row r="8">
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>353.8495650910194</v>
+        <v>437.9385492950291</v>
       </c>
       <c r="AB8" t="n">
-        <v>484.1525856985947</v>
+        <v>599.2068436306834</v>
       </c>
       <c r="AC8" t="n">
-        <v>437.9457424319419</v>
+        <v>542.019383466657</v>
       </c>
       <c r="AD8" t="n">
-        <v>353849.5650910194</v>
+        <v>437938.5492950291</v>
       </c>
       <c r="AE8" t="n">
-        <v>484152.5856985947</v>
+        <v>599206.8436306834</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.536705107387792e-06</v>
+        <v>2.249678467978726e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.45572916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>437945.7424319419</v>
+        <v>542019.383466657</v>
       </c>
     </row>
     <row r="9">
@@ -8024,28 +8024,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>349.2810541076349</v>
+        <v>433.3700383116446</v>
       </c>
       <c r="AB9" t="n">
-        <v>477.901747422648</v>
+        <v>592.9560053547366</v>
       </c>
       <c r="AC9" t="n">
-        <v>432.2914753879449</v>
+        <v>536.3651164226601</v>
       </c>
       <c r="AD9" t="n">
-        <v>349281.0541076349</v>
+        <v>433370.0383116446</v>
       </c>
       <c r="AE9" t="n">
-        <v>477901.747422648</v>
+        <v>592956.0053547366</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.546967354534125e-06</v>
+        <v>2.264702011745967e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.32552083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>432291.4753879449</v>
+        <v>536365.1164226601</v>
       </c>
     </row>
     <row r="10">
@@ -8130,28 +8130,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>345.6802196119891</v>
+        <v>429.7692038159989</v>
       </c>
       <c r="AB10" t="n">
-        <v>472.9749268080992</v>
+        <v>588.0291847401877</v>
       </c>
       <c r="AC10" t="n">
-        <v>427.8348636180124</v>
+        <v>531.9085046527276</v>
       </c>
       <c r="AD10" t="n">
-        <v>345680.2196119891</v>
+        <v>429769.2038159989</v>
       </c>
       <c r="AE10" t="n">
-        <v>472974.9268080991</v>
+        <v>588029.1847401877</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.55710886936109e-06</v>
+        <v>2.279548807939475e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.1953125</v>
       </c>
       <c r="AH10" t="n">
-        <v>427834.8636180124</v>
+        <v>531908.5046527276</v>
       </c>
     </row>
     <row r="11">
@@ -8236,28 +8236,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>341.8796572220693</v>
+        <v>425.9686414260791</v>
       </c>
       <c r="AB11" t="n">
-        <v>467.7748296772317</v>
+        <v>582.8290876093204</v>
       </c>
       <c r="AC11" t="n">
-        <v>423.1310564589328</v>
+        <v>527.2046974936479</v>
       </c>
       <c r="AD11" t="n">
-        <v>341879.6572220693</v>
+        <v>425968.6414260791</v>
       </c>
       <c r="AE11" t="n">
-        <v>467774.8296772317</v>
+        <v>582829.0876093204</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.562734995443668e-06</v>
+        <v>2.287785244875398e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.1171875</v>
       </c>
       <c r="AH11" t="n">
-        <v>423131.0564589328</v>
+        <v>527204.6974936479</v>
       </c>
     </row>
     <row r="12">
@@ -8342,28 +8342,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>336.7286374840879</v>
+        <v>420.8176216880976</v>
       </c>
       <c r="AB12" t="n">
-        <v>460.726977224773</v>
+        <v>575.7812351568615</v>
       </c>
       <c r="AC12" t="n">
-        <v>416.7558411528137</v>
+        <v>520.8294821875288</v>
       </c>
       <c r="AD12" t="n">
-        <v>336728.6374840879</v>
+        <v>420817.6216880976</v>
       </c>
       <c r="AE12" t="n">
-        <v>460726.977224773</v>
+        <v>575781.2351568615</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.568650879092731e-06</v>
+        <v>2.296445875988278e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.0390625</v>
       </c>
       <c r="AH12" t="n">
-        <v>416755.8411528137</v>
+        <v>520829.4821875289</v>
       </c>
     </row>
     <row r="13">
@@ -8448,28 +8448,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>328.0267887785167</v>
+        <v>420.4477661744068</v>
       </c>
       <c r="AB13" t="n">
-        <v>448.8207239273398</v>
+        <v>575.2751825261561</v>
       </c>
       <c r="AC13" t="n">
-        <v>405.9859039595561</v>
+        <v>520.3717265096485</v>
       </c>
       <c r="AD13" t="n">
-        <v>328026.7887785167</v>
+        <v>420447.7661744067</v>
       </c>
       <c r="AE13" t="n">
-        <v>448820.7239273398</v>
+        <v>575275.1825261561</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.572997242590002e-06</v>
+        <v>2.302808788642639e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.98697916666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>405985.9039595561</v>
+        <v>520371.7265096485</v>
       </c>
     </row>
     <row r="14">
@@ -8554,28 +8554,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>327.9122372667399</v>
+        <v>420.33321466263</v>
       </c>
       <c r="AB14" t="n">
-        <v>448.6639894952708</v>
+        <v>575.1184480940871</v>
       </c>
       <c r="AC14" t="n">
-        <v>405.8441280417056</v>
+        <v>520.229950591798</v>
       </c>
       <c r="AD14" t="n">
-        <v>327912.2372667399</v>
+        <v>420333.21466263</v>
       </c>
       <c r="AE14" t="n">
-        <v>448663.9894952708</v>
+        <v>575118.4480940871</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.572973096126128e-06</v>
+        <v>2.302773439127892e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.98697916666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>405844.1280417056</v>
+        <v>520229.950591798</v>
       </c>
     </row>
   </sheetData>
@@ -8851,28 +8851,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>329.8988384989206</v>
+        <v>423.0209624552272</v>
       </c>
       <c r="AB2" t="n">
-        <v>451.3821449438012</v>
+        <v>578.7959431989824</v>
       </c>
       <c r="AC2" t="n">
-        <v>408.3028665491834</v>
+        <v>523.5564707252792</v>
       </c>
       <c r="AD2" t="n">
-        <v>329898.8384989206</v>
+        <v>423020.9624552272</v>
       </c>
       <c r="AE2" t="n">
-        <v>451382.1449438012</v>
+        <v>578795.9431989824</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.554341784748361e-06</v>
+        <v>2.40475859794323e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.56510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>408302.8665491834</v>
+        <v>523556.4707252791</v>
       </c>
     </row>
     <row r="3">
@@ -8957,28 +8957,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>286.8692774358463</v>
+        <v>372.2241126579131</v>
       </c>
       <c r="AB3" t="n">
-        <v>392.5072011670463</v>
+        <v>509.293452307446</v>
       </c>
       <c r="AC3" t="n">
-        <v>355.0468647749794</v>
+        <v>460.6872000170723</v>
       </c>
       <c r="AD3" t="n">
-        <v>286869.2774358463</v>
+        <v>372224.1126579131</v>
       </c>
       <c r="AE3" t="n">
-        <v>392507.2011670463</v>
+        <v>509293.452307446</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.709889127754745e-06</v>
+        <v>2.645409537236086e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.52083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>355046.8647749794</v>
+        <v>460687.2000170723</v>
       </c>
     </row>
     <row r="4">
@@ -9063,28 +9063,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>266.1839112154208</v>
+        <v>351.4534055829159</v>
       </c>
       <c r="AB4" t="n">
-        <v>364.2045705303089</v>
+        <v>480.8740545485108</v>
       </c>
       <c r="AC4" t="n">
-        <v>329.4453974832206</v>
+        <v>434.9801096933746</v>
       </c>
       <c r="AD4" t="n">
-        <v>266183.9112154208</v>
+        <v>351453.4055829159</v>
       </c>
       <c r="AE4" t="n">
-        <v>364204.5705303089</v>
+        <v>480874.0545485108</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.769839385539121e-06</v>
+        <v>2.738159985863594e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.81770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>329445.3974832206</v>
+        <v>434980.1096933746</v>
       </c>
     </row>
     <row r="5">
@@ -9169,28 +9169,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>263.9037451616207</v>
+        <v>341.5766325040192</v>
       </c>
       <c r="AB5" t="n">
-        <v>361.0847467416729</v>
+        <v>467.3602178894886</v>
       </c>
       <c r="AC5" t="n">
-        <v>326.6233252982718</v>
+        <v>422.7560146383006</v>
       </c>
       <c r="AD5" t="n">
-        <v>263903.7451616207</v>
+        <v>341576.6325040192</v>
       </c>
       <c r="AE5" t="n">
-        <v>361084.7467416729</v>
+        <v>467360.2178894886</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.781559997735168e-06</v>
+        <v>2.756293219640208e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.6875</v>
       </c>
       <c r="AH5" t="n">
-        <v>326623.3252982718</v>
+        <v>422756.0146383006</v>
       </c>
     </row>
     <row r="6">
@@ -9275,28 +9275,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>264.5699791896589</v>
+        <v>342.2428665320573</v>
       </c>
       <c r="AB6" t="n">
-        <v>361.9963175310055</v>
+        <v>468.2717886788212</v>
       </c>
       <c r="AC6" t="n">
-        <v>327.4478970508682</v>
+        <v>423.5805863908969</v>
       </c>
       <c r="AD6" t="n">
-        <v>264569.9791896588</v>
+        <v>342242.8665320573</v>
       </c>
       <c r="AE6" t="n">
-        <v>361996.3175310055</v>
+        <v>468271.7886788212</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.781290558374339e-06</v>
+        <v>2.75587636369132e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.70052083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>327447.8970508681</v>
+        <v>423580.5863908969</v>
       </c>
     </row>
   </sheetData>
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>403.4991429334736</v>
+        <v>507.5222615309893</v>
       </c>
       <c r="AB2" t="n">
-        <v>552.0853284874254</v>
+        <v>694.4143485286511</v>
       </c>
       <c r="AC2" t="n">
-        <v>499.3950795932098</v>
+        <v>628.1404177217352</v>
       </c>
       <c r="AD2" t="n">
-        <v>403499.1429334736</v>
+        <v>507522.2615309893</v>
       </c>
       <c r="AE2" t="n">
-        <v>552085.3284874253</v>
+        <v>694414.3485286511</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.373392829560699e-06</v>
+        <v>2.075600299613046e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.44010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>499395.0795932098</v>
+        <v>628140.4177217352</v>
       </c>
     </row>
     <row r="3">
@@ -9678,28 +9678,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>337.3664244324668</v>
+        <v>425.4319528610652</v>
       </c>
       <c r="AB3" t="n">
-        <v>461.5996254647195</v>
+        <v>582.0947666376397</v>
       </c>
       <c r="AC3" t="n">
-        <v>417.5452050695092</v>
+        <v>526.5404590848786</v>
       </c>
       <c r="AD3" t="n">
-        <v>337366.4244324669</v>
+        <v>425431.9528610652</v>
       </c>
       <c r="AE3" t="n">
-        <v>461599.6254647195</v>
+        <v>582094.7666376397</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.565349744816391e-06</v>
+        <v>2.365703627839212e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.4453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>417545.2050695092</v>
+        <v>526540.4590848787</v>
       </c>
     </row>
     <row r="4">
@@ -9784,28 +9784,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>315.2104666760901</v>
+        <v>403.3612464507089</v>
       </c>
       <c r="AB4" t="n">
-        <v>431.2848666105737</v>
+        <v>551.8966524361432</v>
       </c>
       <c r="AC4" t="n">
-        <v>390.1236442533718</v>
+        <v>499.2244105194536</v>
       </c>
       <c r="AD4" t="n">
-        <v>315210.4666760901</v>
+        <v>403361.2464507089</v>
       </c>
       <c r="AE4" t="n">
-        <v>431284.8666105737</v>
+        <v>551896.6524361433</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.634043873882649e-06</v>
+        <v>2.469520650764247e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.53385416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>390123.6442533717</v>
+        <v>499224.4105194536</v>
       </c>
     </row>
     <row r="5">
@@ -9890,28 +9890,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>305.9104254279015</v>
+        <v>386.0398291993268</v>
       </c>
       <c r="AB5" t="n">
-        <v>418.560139885939</v>
+        <v>528.1967251858053</v>
       </c>
       <c r="AC5" t="n">
-        <v>378.6133475880701</v>
+        <v>477.7863710628312</v>
       </c>
       <c r="AD5" t="n">
-        <v>305910.4254279016</v>
+        <v>386039.8291993268</v>
       </c>
       <c r="AE5" t="n">
-        <v>418560.139885939</v>
+        <v>528196.7251858053</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.670079293182697e-06</v>
+        <v>2.523980762602595e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.09114583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>378613.3475880701</v>
+        <v>477786.3710628311</v>
       </c>
     </row>
     <row r="6">
@@ -9996,28 +9996,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>290.7543728537682</v>
+        <v>378.8198117738154</v>
       </c>
       <c r="AB6" t="n">
-        <v>397.8229601161603</v>
+        <v>518.3179788195322</v>
       </c>
       <c r="AC6" t="n">
-        <v>359.8552951507044</v>
+        <v>468.8504383848475</v>
       </c>
       <c r="AD6" t="n">
-        <v>290754.3728537682</v>
+        <v>378819.8117738154</v>
       </c>
       <c r="AE6" t="n">
-        <v>397822.9601161603</v>
+        <v>518317.9788195322</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.687865015154823e-06</v>
+        <v>2.550860216943411e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.8828125</v>
       </c>
       <c r="AH6" t="n">
-        <v>359855.2951507044</v>
+        <v>468850.4383848475</v>
       </c>
     </row>
     <row r="7">
@@ -10102,28 +10102,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>285.474381990163</v>
+        <v>365.6890371076088</v>
       </c>
       <c r="AB7" t="n">
-        <v>390.5986436798186</v>
+        <v>500.3518736323342</v>
       </c>
       <c r="AC7" t="n">
-        <v>353.3204573356554</v>
+        <v>452.5989930611287</v>
       </c>
       <c r="AD7" t="n">
-        <v>285474.381990163</v>
+        <v>365689.0371076088</v>
       </c>
       <c r="AE7" t="n">
-        <v>390598.6436798186</v>
+        <v>500351.8736323342</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.703201978304701e-06</v>
+        <v>2.574038876845998e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.70052083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>353320.4573356554</v>
+        <v>452598.9930611287</v>
       </c>
     </row>
     <row r="8">
@@ -10208,28 +10208,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>286.1459190485644</v>
+        <v>366.3605741660102</v>
       </c>
       <c r="AB8" t="n">
-        <v>391.5174703092475</v>
+        <v>501.2707002617632</v>
       </c>
       <c r="AC8" t="n">
-        <v>354.1515924411529</v>
+        <v>453.4301281666262</v>
       </c>
       <c r="AD8" t="n">
-        <v>286145.9190485644</v>
+        <v>366360.5741660103</v>
       </c>
       <c r="AE8" t="n">
-        <v>391517.4703092475</v>
+        <v>501270.7002617632</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.701784275828662e-06</v>
+        <v>2.571896311644918e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.7265625</v>
       </c>
       <c r="AH8" t="n">
-        <v>354151.5924411529</v>
+        <v>453430.1281666262</v>
       </c>
     </row>
   </sheetData>
@@ -10505,28 +10505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>282.3944214185877</v>
+        <v>365.3707572265482</v>
       </c>
       <c r="AB2" t="n">
-        <v>386.3845057475187</v>
+        <v>499.9163890575497</v>
       </c>
       <c r="AC2" t="n">
-        <v>349.5085108130345</v>
+        <v>452.2050705229553</v>
       </c>
       <c r="AD2" t="n">
-        <v>282394.4214185877</v>
+        <v>365370.7572265482</v>
       </c>
       <c r="AE2" t="n">
-        <v>386384.5057475187</v>
+        <v>499916.3890575498</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.703862072832857e-06</v>
+        <v>2.692933543312463e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.38020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>349508.5108130345</v>
+        <v>452205.0705229553</v>
       </c>
     </row>
     <row r="3">
@@ -10611,28 +10611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>246.9754009012064</v>
+        <v>329.9516472006189</v>
       </c>
       <c r="AB3" t="n">
-        <v>337.922639298574</v>
+        <v>451.4544001392203</v>
       </c>
       <c r="AC3" t="n">
-        <v>305.6717768814218</v>
+        <v>408.3682258101625</v>
       </c>
       <c r="AD3" t="n">
-        <v>246975.4009012064</v>
+        <v>329951.6472006189</v>
       </c>
       <c r="AE3" t="n">
-        <v>337922.6392985741</v>
+        <v>451454.4001392203</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.833369917943067e-06</v>
+        <v>2.89761913716429e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.86979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>305671.7768814218</v>
+        <v>408368.2258101625</v>
       </c>
     </row>
     <row r="4">
@@ -10717,28 +10717,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>245.9267767856613</v>
+        <v>328.9030230850738</v>
       </c>
       <c r="AB4" t="n">
-        <v>336.4878655216551</v>
+        <v>450.0196263623005</v>
       </c>
       <c r="AC4" t="n">
-        <v>304.3739359000538</v>
+        <v>407.0703848287943</v>
       </c>
       <c r="AD4" t="n">
-        <v>245926.7767856613</v>
+        <v>328903.0230850738</v>
       </c>
       <c r="AE4" t="n">
-        <v>336487.8655216551</v>
+        <v>450019.6263623005</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.838043169916577e-06</v>
+        <v>2.905005155784268e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.81770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>304373.9359000538</v>
+        <v>407070.3848287943</v>
       </c>
     </row>
   </sheetData>
@@ -11014,28 +11014,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>593.6747774328319</v>
+        <v>720.6169250188447</v>
       </c>
       <c r="AB2" t="n">
-        <v>812.292021566308</v>
+        <v>985.9798681857931</v>
       </c>
       <c r="AC2" t="n">
-        <v>734.7680110870315</v>
+        <v>891.8793333975766</v>
       </c>
       <c r="AD2" t="n">
-        <v>593674.7774328319</v>
+        <v>720616.9250188447</v>
       </c>
       <c r="AE2" t="n">
-        <v>812292.021566308</v>
+        <v>985979.868185793</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.061347682481063e-06</v>
+        <v>1.547324234053934e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.36197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>734768.0110870315</v>
+        <v>891879.3333975766</v>
       </c>
     </row>
     <row r="3">
@@ -11120,28 +11120,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>449.784805191935</v>
+        <v>559.7784979645161</v>
       </c>
       <c r="AB3" t="n">
-        <v>615.4154135687554</v>
+        <v>765.913636599448</v>
       </c>
       <c r="AC3" t="n">
-        <v>556.6810302387105</v>
+        <v>692.8159140889363</v>
       </c>
       <c r="AD3" t="n">
-        <v>449784.805191935</v>
+        <v>559778.497964516</v>
       </c>
       <c r="AE3" t="n">
-        <v>615415.4135687554</v>
+        <v>765913.6365994479</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.30272513323268e-06</v>
+        <v>1.8992251099564e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.91927083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>556681.0302387105</v>
+        <v>692815.9140889363</v>
       </c>
     </row>
     <row r="4">
@@ -11226,28 +11226,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>413.1436559668783</v>
+        <v>506.2744137977014</v>
       </c>
       <c r="AB4" t="n">
-        <v>565.2813767056155</v>
+        <v>692.7069882088097</v>
       </c>
       <c r="AC4" t="n">
-        <v>511.3317154902258</v>
+        <v>626.5960054745243</v>
       </c>
       <c r="AD4" t="n">
-        <v>413143.6559668783</v>
+        <v>506274.4137977014</v>
       </c>
       <c r="AE4" t="n">
-        <v>565281.3767056154</v>
+        <v>692706.9882088096</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.401889221258327e-06</v>
+        <v>2.043795074241104e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.2265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>511331.7154902258</v>
+        <v>626596.0054745243</v>
       </c>
     </row>
     <row r="5">
@@ -11332,28 +11332,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>392.9962269844378</v>
+        <v>486.2122361612814</v>
       </c>
       <c r="AB5" t="n">
-        <v>537.7147755300049</v>
+        <v>665.2570316858485</v>
       </c>
       <c r="AC5" t="n">
-        <v>486.3960320408479</v>
+        <v>601.7658342758584</v>
       </c>
       <c r="AD5" t="n">
-        <v>392996.2269844378</v>
+        <v>486212.2361612814</v>
       </c>
       <c r="AE5" t="n">
-        <v>537714.7755300049</v>
+        <v>665257.0316858485</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.445584594022524e-06</v>
+        <v>2.107497959082772e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.54947916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>486396.0320408479</v>
+        <v>601765.8342758585</v>
       </c>
     </row>
     <row r="6">
@@ -11438,28 +11438,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>383.3396302281193</v>
+        <v>468.0815462610737</v>
       </c>
       <c r="AB6" t="n">
-        <v>524.5021938290281</v>
+        <v>640.4498218947979</v>
       </c>
       <c r="AC6" t="n">
-        <v>474.4444405934373</v>
+        <v>579.3261897701282</v>
       </c>
       <c r="AD6" t="n">
-        <v>383339.6302281193</v>
+        <v>468081.5462610737</v>
       </c>
       <c r="AE6" t="n">
-        <v>524502.1938290281</v>
+        <v>640449.8218947978</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.480689255492993e-06</v>
+        <v>2.158676563717343e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.04166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>474444.4405934373</v>
+        <v>579326.1897701281</v>
       </c>
     </row>
     <row r="7">
@@ -11544,28 +11544,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>369.252037858213</v>
+        <v>462.3827061804849</v>
       </c>
       <c r="AB7" t="n">
-        <v>505.2269284478101</v>
+        <v>632.6524174814559</v>
       </c>
       <c r="AC7" t="n">
-        <v>457.008779487198</v>
+        <v>572.2729586902699</v>
       </c>
       <c r="AD7" t="n">
-        <v>369252.037858213</v>
+        <v>462382.706180485</v>
       </c>
       <c r="AE7" t="n">
-        <v>505226.9284478101</v>
+        <v>632652.417481456</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.500120056525046e-06</v>
+        <v>2.187004462124481e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.76822916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>457008.779487198</v>
+        <v>572272.9586902699</v>
       </c>
     </row>
     <row r="8">
@@ -11650,28 +11650,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>363.2406477429592</v>
+        <v>456.3713160652312</v>
       </c>
       <c r="AB8" t="n">
-        <v>497.0018792883052</v>
+        <v>624.427368321951</v>
       </c>
       <c r="AC8" t="n">
-        <v>449.5687174755471</v>
+        <v>564.8328966786191</v>
       </c>
       <c r="AD8" t="n">
-        <v>363240.6477429592</v>
+        <v>456371.3160652312</v>
       </c>
       <c r="AE8" t="n">
-        <v>497001.8792883052</v>
+        <v>624427.368321951</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.517947577176375e-06</v>
+        <v>2.212994960047286e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.52083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>449568.7174755472</v>
+        <v>564832.8966786191</v>
       </c>
     </row>
     <row r="9">
@@ -11756,28 +11756,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>359.2456184576711</v>
+        <v>443.9021936360538</v>
       </c>
       <c r="AB9" t="n">
-        <v>491.535703971921</v>
+        <v>607.3665649154931</v>
       </c>
       <c r="AC9" t="n">
-        <v>444.6242262595334</v>
+        <v>549.4003524042854</v>
       </c>
       <c r="AD9" t="n">
-        <v>359245.6184576711</v>
+        <v>443902.1936360538</v>
       </c>
       <c r="AE9" t="n">
-        <v>491535.7039719209</v>
+        <v>607366.5649154931</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.526753654491393e-06</v>
+        <v>2.22583321942392e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.40364583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>444624.2262595334</v>
+        <v>549400.3524042855</v>
       </c>
     </row>
     <row r="10">
@@ -11862,28 +11862,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>356.5976998724789</v>
+        <v>441.2542750508616</v>
       </c>
       <c r="AB10" t="n">
-        <v>487.9127049457376</v>
+        <v>603.7435658893096</v>
       </c>
       <c r="AC10" t="n">
-        <v>441.3470011754979</v>
+        <v>546.1231273202498</v>
       </c>
       <c r="AD10" t="n">
-        <v>356597.6998724789</v>
+        <v>441254.2750508616</v>
       </c>
       <c r="AE10" t="n">
-        <v>487912.7049457376</v>
+        <v>603743.5658893096</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.531156693148903e-06</v>
+        <v>2.232252349112237e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.3515625</v>
       </c>
       <c r="AH10" t="n">
-        <v>441347.0011754979</v>
+        <v>546123.1273202498</v>
       </c>
     </row>
     <row r="11">
@@ -11968,28 +11968,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>352.1091221422975</v>
+        <v>436.7656973206801</v>
       </c>
       <c r="AB11" t="n">
-        <v>481.7712348732296</v>
+        <v>597.6020958168018</v>
       </c>
       <c r="AC11" t="n">
-        <v>435.7916643871026</v>
+        <v>540.5677905318546</v>
       </c>
       <c r="AD11" t="n">
-        <v>352109.1221422974</v>
+        <v>436765.6973206801</v>
       </c>
       <c r="AE11" t="n">
-        <v>481771.2348732296</v>
+        <v>597602.0958168018</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.543265049457054e-06</v>
+        <v>2.249904955755109e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.1953125</v>
       </c>
       <c r="AH11" t="n">
-        <v>435791.6643871026</v>
+        <v>540567.7905318546</v>
       </c>
     </row>
     <row r="12">
@@ -12074,28 +12074,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>347.6921685042203</v>
+        <v>432.348743682603</v>
       </c>
       <c r="AB12" t="n">
-        <v>475.7277640433705</v>
+        <v>591.5586249869426</v>
       </c>
       <c r="AC12" t="n">
-        <v>430.3249739311809</v>
+        <v>535.1011000759328</v>
       </c>
       <c r="AD12" t="n">
-        <v>347692.1685042203</v>
+        <v>432348.743682603</v>
       </c>
       <c r="AE12" t="n">
-        <v>475727.7640433706</v>
+        <v>591558.6249869426</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.548362045294279e-06</v>
+        <v>2.257335796100823e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.1171875</v>
       </c>
       <c r="AH12" t="n">
-        <v>430324.9739311809</v>
+        <v>535101.1000759328</v>
       </c>
     </row>
     <row r="13">
@@ -12180,28 +12180,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>344.3263459334611</v>
+        <v>428.9829211118438</v>
       </c>
       <c r="AB13" t="n">
-        <v>471.1224971124459</v>
+        <v>586.9533580560181</v>
       </c>
       <c r="AC13" t="n">
-        <v>426.1592272126109</v>
+        <v>530.9353533573629</v>
       </c>
       <c r="AD13" t="n">
-        <v>344326.3459334611</v>
+        <v>428982.9211118438</v>
       </c>
       <c r="AE13" t="n">
-        <v>471122.4971124459</v>
+        <v>586953.3580560181</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.55259757704634e-06</v>
+        <v>2.263510719768389e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.06510416666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>426159.2272126109</v>
+        <v>530935.3533573629</v>
       </c>
     </row>
     <row r="14">
@@ -12286,28 +12286,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>342.3962374036597</v>
+        <v>427.0528125820423</v>
       </c>
       <c r="AB14" t="n">
-        <v>468.4816374715928</v>
+        <v>584.3124984151649</v>
       </c>
       <c r="AC14" t="n">
-        <v>423.770407509411</v>
+        <v>528.546533654163</v>
       </c>
       <c r="AD14" t="n">
-        <v>342396.2374036597</v>
+        <v>427052.8125820424</v>
       </c>
       <c r="AE14" t="n">
-        <v>468481.6374715928</v>
+        <v>584312.4984151649</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.5522147041196e-06</v>
+        <v>2.262952534578101e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.078125</v>
       </c>
       <c r="AH14" t="n">
-        <v>423770.407509411</v>
+        <v>528546.533654163</v>
       </c>
     </row>
     <row r="15">
@@ -12392,28 +12392,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>341.3918566079976</v>
+        <v>426.0484317863803</v>
       </c>
       <c r="AB15" t="n">
-        <v>467.1073993568144</v>
+        <v>582.9382603003866</v>
       </c>
       <c r="AC15" t="n">
-        <v>422.5273247515518</v>
+        <v>527.3034508963037</v>
       </c>
       <c r="AD15" t="n">
-        <v>341391.8566079976</v>
+        <v>426048.4317863802</v>
       </c>
       <c r="AE15" t="n">
-        <v>467107.3993568145</v>
+        <v>582938.2603003866</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.556976686145928e-06</v>
+        <v>2.269894962882313e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20.01302083333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>422527.3247515518</v>
+        <v>527303.4508963038</v>
       </c>
     </row>
     <row r="16">
@@ -12498,28 +12498,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>333.4928064962869</v>
+        <v>426.5381339639872</v>
       </c>
       <c r="AB16" t="n">
-        <v>456.2995705124757</v>
+        <v>583.6082924239239</v>
       </c>
       <c r="AC16" t="n">
-        <v>412.7509799232336</v>
+        <v>527.9095360943667</v>
       </c>
       <c r="AD16" t="n">
-        <v>333492.8064962869</v>
+        <v>426538.1339639872</v>
       </c>
       <c r="AE16" t="n">
-        <v>456299.5705124757</v>
+        <v>583608.2924239238</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.557455277304353e-06</v>
+        <v>2.270592694370174e-06</v>
       </c>
       <c r="AG16" t="n">
         <v>20</v>
       </c>
       <c r="AH16" t="n">
-        <v>412750.9799232336</v>
+        <v>527909.5360943667</v>
       </c>
     </row>
   </sheetData>
@@ -12795,28 +12795,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>252.9861231243744</v>
+        <v>334.6897640612877</v>
       </c>
       <c r="AB2" t="n">
-        <v>346.1467746186579</v>
+        <v>457.9373006589506</v>
       </c>
       <c r="AC2" t="n">
-        <v>313.1110122692059</v>
+        <v>414.2324074030979</v>
       </c>
       <c r="AD2" t="n">
-        <v>252986.1231243744</v>
+        <v>334689.7640612877</v>
       </c>
       <c r="AE2" t="n">
-        <v>346146.7746186579</v>
+        <v>457937.3006589506</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.794877286620971e-06</v>
+        <v>2.875815025673668e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.78125</v>
       </c>
       <c r="AH2" t="n">
-        <v>313111.0122692059</v>
+        <v>414232.4074030978</v>
       </c>
     </row>
     <row r="3">
@@ -12901,28 +12901,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>235.1625900140053</v>
+        <v>316.7808900963468</v>
       </c>
       <c r="AB3" t="n">
-        <v>321.7598302982779</v>
+        <v>433.4335892163605</v>
       </c>
       <c r="AC3" t="n">
-        <v>291.0515236874639</v>
+        <v>392.0672957894134</v>
       </c>
       <c r="AD3" t="n">
-        <v>235162.5900140053</v>
+        <v>316780.8900963467</v>
       </c>
       <c r="AE3" t="n">
-        <v>321759.8302982779</v>
+        <v>433433.5892163605</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.867560151454542e-06</v>
+        <v>2.992270048173225e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.9609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>291051.5236874639</v>
+        <v>392067.2957894134</v>
       </c>
     </row>
   </sheetData>
@@ -13198,28 +13198,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>478.8670092634052</v>
+        <v>585.8135246030323</v>
       </c>
       <c r="AB2" t="n">
-        <v>655.2069681956337</v>
+        <v>801.5359086305781</v>
       </c>
       <c r="AC2" t="n">
-        <v>592.6749347397971</v>
+        <v>725.0384464735882</v>
       </c>
       <c r="AD2" t="n">
-        <v>478867.0092634052</v>
+        <v>585813.5246030323</v>
       </c>
       <c r="AE2" t="n">
-        <v>655206.9681956337</v>
+        <v>801535.9086305781</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.228193894510603e-06</v>
+        <v>1.823675349020022e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.38020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>592674.9347397971</v>
+        <v>725038.4464735882</v>
       </c>
     </row>
     <row r="3">
@@ -13304,28 +13304,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>386.3588293461682</v>
+        <v>484.9014501546793</v>
       </c>
       <c r="AB3" t="n">
-        <v>528.6331952600069</v>
+        <v>663.463556443818</v>
       </c>
       <c r="AC3" t="n">
-        <v>478.1811850457406</v>
+        <v>600.1435257937692</v>
       </c>
       <c r="AD3" t="n">
-        <v>386358.8293461682</v>
+        <v>484901.4501546792</v>
       </c>
       <c r="AE3" t="n">
-        <v>528633.1952600069</v>
+        <v>663463.556443818</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.441948592728783e-06</v>
+        <v>2.141067558523749e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.4609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>478181.1850457406</v>
+        <v>600143.5257937692</v>
       </c>
     </row>
     <row r="4">
@@ -13410,28 +13410,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>359.3354082791936</v>
+        <v>449.7301571203034</v>
       </c>
       <c r="AB4" t="n">
-        <v>491.6585583669753</v>
+        <v>615.3406416662463</v>
       </c>
       <c r="AC4" t="n">
-        <v>444.735355603551</v>
+        <v>556.6133944616337</v>
       </c>
       <c r="AD4" t="n">
-        <v>359335.4082791936</v>
+        <v>449730.1571203034</v>
       </c>
       <c r="AE4" t="n">
-        <v>491658.5583669753</v>
+        <v>615340.6416662462</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.52240514464191e-06</v>
+        <v>2.260532922296451e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.27604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>444735.355603551</v>
+        <v>556613.3944616336</v>
       </c>
     </row>
     <row r="5">
@@ -13516,28 +13516,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>340.5432366816681</v>
+        <v>431.0232368687984</v>
       </c>
       <c r="AB5" t="n">
-        <v>465.9462801351416</v>
+        <v>589.7450080870618</v>
       </c>
       <c r="AC5" t="n">
-        <v>421.4770211187544</v>
+        <v>533.4605722275492</v>
       </c>
       <c r="AD5" t="n">
-        <v>340543.2366816681</v>
+        <v>431023.2368687984</v>
       </c>
       <c r="AE5" t="n">
-        <v>465946.2801351416</v>
+        <v>589745.0080870618</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.563752945903388e-06</v>
+        <v>2.321927923715817e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.71614583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>421477.0211187544</v>
+        <v>533460.5722275492</v>
       </c>
     </row>
     <row r="6">
@@ -13622,28 +13622,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>333.5060029597144</v>
+        <v>415.7528798334227</v>
       </c>
       <c r="AB6" t="n">
-        <v>456.3176264959239</v>
+        <v>568.8514319106542</v>
       </c>
       <c r="AC6" t="n">
-        <v>412.7673126689633</v>
+        <v>514.5610496370998</v>
       </c>
       <c r="AD6" t="n">
-        <v>333506.0029597143</v>
+        <v>415752.8798334227</v>
       </c>
       <c r="AE6" t="n">
-        <v>456317.6264959239</v>
+        <v>568851.4319106543</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.591666443505902e-06</v>
+        <v>2.363375090739e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.3515625</v>
       </c>
       <c r="AH6" t="n">
-        <v>412767.3126689633</v>
+        <v>514561.0496370998</v>
       </c>
     </row>
     <row r="7">
@@ -13728,28 +13728,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>327.8973489645923</v>
+        <v>410.1442258383008</v>
       </c>
       <c r="AB7" t="n">
-        <v>448.643618663447</v>
+        <v>561.1774240781774</v>
       </c>
       <c r="AC7" t="n">
-        <v>405.8257013734804</v>
+        <v>507.6194383416169</v>
       </c>
       <c r="AD7" t="n">
-        <v>327897.3489645923</v>
+        <v>410144.2258383008</v>
       </c>
       <c r="AE7" t="n">
-        <v>448643.618663447</v>
+        <v>561177.4240781774</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.606270029149997e-06</v>
+        <v>2.385059125536333e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.16927083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>405825.7013734804</v>
+        <v>507619.4383416169</v>
       </c>
     </row>
     <row r="8">
@@ -13834,28 +13834,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>313.1953237753148</v>
+        <v>403.5899831078735</v>
       </c>
       <c r="AB8" t="n">
-        <v>428.5276591919025</v>
+        <v>552.2096200216249</v>
       </c>
       <c r="AC8" t="n">
-        <v>387.6295808409737</v>
+        <v>499.5075089178296</v>
       </c>
       <c r="AD8" t="n">
-        <v>313195.3237753148</v>
+        <v>403589.9831078735</v>
       </c>
       <c r="AE8" t="n">
-        <v>428527.6591919025</v>
+        <v>552209.620021625</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.621794113378134e-06</v>
+        <v>2.408109956394146e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.97395833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>387629.5808409737</v>
+        <v>499507.5089178296</v>
       </c>
     </row>
     <row r="9">
@@ -13940,28 +13940,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>310.1423167922376</v>
+        <v>400.5369761247962</v>
       </c>
       <c r="AB9" t="n">
-        <v>424.3504003484941</v>
+        <v>548.0323611782164</v>
       </c>
       <c r="AC9" t="n">
-        <v>383.8509937187605</v>
+        <v>495.7289217956164</v>
       </c>
       <c r="AD9" t="n">
-        <v>310142.3167922376</v>
+        <v>400536.9761247962</v>
       </c>
       <c r="AE9" t="n">
-        <v>424350.4003484941</v>
+        <v>548032.3611782164</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.625799526135714e-06</v>
+        <v>2.414057366278934e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.921875</v>
       </c>
       <c r="AH9" t="n">
-        <v>383850.9937187605</v>
+        <v>495728.9217956164</v>
       </c>
     </row>
     <row r="10">
@@ -14046,28 +14046,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>306.8589504285707</v>
+        <v>397.2536097611294</v>
       </c>
       <c r="AB10" t="n">
-        <v>419.8579536378243</v>
+        <v>543.5399144675466</v>
       </c>
       <c r="AC10" t="n">
-        <v>379.7872998169685</v>
+        <v>491.6652278938245</v>
       </c>
       <c r="AD10" t="n">
-        <v>306858.9504285707</v>
+        <v>397253.6097611294</v>
       </c>
       <c r="AE10" t="n">
-        <v>419857.9536378243</v>
+        <v>543539.9144675466</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.631198125939408e-06</v>
+        <v>2.422073440471474e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.85677083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>379787.2998169685</v>
+        <v>491665.2278938245</v>
       </c>
     </row>
     <row r="11">
@@ -14152,28 +14152,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>306.9061211962928</v>
+        <v>397.3007805288514</v>
       </c>
       <c r="AB11" t="n">
-        <v>419.9224947632489</v>
+        <v>543.6044555929712</v>
       </c>
       <c r="AC11" t="n">
-        <v>379.8456812279666</v>
+        <v>491.7236093048226</v>
       </c>
       <c r="AD11" t="n">
-        <v>306906.1211962927</v>
+        <v>397300.7805288514</v>
       </c>
       <c r="AE11" t="n">
-        <v>419922.4947632489</v>
+        <v>543604.4555929713</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.63545232209808e-06</v>
+        <v>2.428390254696933e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.8046875</v>
       </c>
       <c r="AH11" t="n">
-        <v>379845.6812279666</v>
+        <v>491723.6093048226</v>
       </c>
     </row>
   </sheetData>
@@ -14449,28 +14449,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>530.1080516931177</v>
+        <v>655.314961808675</v>
       </c>
       <c r="AB2" t="n">
-        <v>725.3172230432136</v>
+        <v>896.630841202347</v>
       </c>
       <c r="AC2" t="n">
-        <v>656.0939652650846</v>
+        <v>811.0576521472838</v>
       </c>
       <c r="AD2" t="n">
-        <v>530108.0516931177</v>
+        <v>655314.961808675</v>
       </c>
       <c r="AE2" t="n">
-        <v>725317.2230432136</v>
+        <v>896630.8412023471</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.141324494832327e-06</v>
+        <v>1.678252019686798e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>656093.9652650846</v>
+        <v>811057.6521472838</v>
       </c>
     </row>
     <row r="3">
@@ -14555,28 +14555,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>421.3285972740126</v>
+        <v>521.4600785331809</v>
       </c>
       <c r="AB3" t="n">
-        <v>576.4803744961624</v>
+        <v>713.4846846441387</v>
       </c>
       <c r="AC3" t="n">
-        <v>521.461896649535</v>
+        <v>645.3907077237455</v>
       </c>
       <c r="AD3" t="n">
-        <v>421328.5972740126</v>
+        <v>521460.0785331809</v>
       </c>
       <c r="AE3" t="n">
-        <v>576480.3744961624</v>
+        <v>713484.6846441387</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.371383453916251e-06</v>
+        <v>2.016540485831004e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.13802083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>521461.896649535</v>
+        <v>645390.7077237455</v>
       </c>
     </row>
     <row r="4">
@@ -14661,28 +14661,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>382.0939580046304</v>
+        <v>474.0375253427441</v>
       </c>
       <c r="AB4" t="n">
-        <v>522.7978101376706</v>
+        <v>648.5990552335917</v>
       </c>
       <c r="AC4" t="n">
-        <v>472.9027208894654</v>
+        <v>586.6976717165883</v>
       </c>
       <c r="AD4" t="n">
-        <v>382093.9580046304</v>
+        <v>474037.5253427441</v>
       </c>
       <c r="AE4" t="n">
-        <v>522797.8101376705</v>
+        <v>648599.0552335917</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.460160178750289e-06</v>
+        <v>2.147081553186079e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.73177083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>472902.7208894654</v>
+        <v>586697.6717165883</v>
       </c>
     </row>
     <row r="5">
@@ -14767,28 +14767,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>370.5464204099427</v>
+        <v>454.1315711349607</v>
       </c>
       <c r="AB5" t="n">
-        <v>506.9979597592147</v>
+        <v>621.3628504977825</v>
       </c>
       <c r="AC5" t="n">
-        <v>458.6107860559002</v>
+        <v>562.0608521345113</v>
       </c>
       <c r="AD5" t="n">
-        <v>370546.4204099427</v>
+        <v>454131.5711349607</v>
       </c>
       <c r="AE5" t="n">
-        <v>506997.9597592147</v>
+        <v>621362.8504977825</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.505840459458413e-06</v>
+        <v>2.214251778398438e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.08072916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>458610.7860559002</v>
+        <v>562060.8521345112</v>
       </c>
     </row>
     <row r="6">
@@ -14873,28 +14873,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>354.181326705029</v>
+        <v>446.039553188571</v>
       </c>
       <c r="AB6" t="n">
-        <v>484.6065165751721</v>
+        <v>610.2909945488957</v>
       </c>
       <c r="AC6" t="n">
-        <v>438.3563507827546</v>
+        <v>552.0456785779388</v>
       </c>
       <c r="AD6" t="n">
-        <v>354181.326705029</v>
+        <v>446039.553188571</v>
       </c>
       <c r="AE6" t="n">
-        <v>484606.5165751721</v>
+        <v>610290.9945488957</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.533628890625575e-06</v>
+        <v>2.255113068015348e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.69010416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>438356.3507827546</v>
+        <v>552045.6785779388</v>
       </c>
     </row>
     <row r="7">
@@ -14979,28 +14979,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>348.4380475698463</v>
+        <v>440.1256818527961</v>
       </c>
       <c r="AB7" t="n">
-        <v>476.748308686822</v>
+        <v>602.1993748856987</v>
       </c>
       <c r="AC7" t="n">
-        <v>431.2481192262047</v>
+        <v>544.7263117387378</v>
       </c>
       <c r="AD7" t="n">
-        <v>348438.0475698463</v>
+        <v>440125.6818527961</v>
       </c>
       <c r="AE7" t="n">
-        <v>476748.308686822</v>
+        <v>602199.3748856987</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.549960687890486e-06</v>
+        <v>2.279128036474409e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.48177083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>431248.1192262046</v>
+        <v>544726.3117387377</v>
       </c>
     </row>
     <row r="8">
@@ -15085,28 +15085,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>344.1160030291615</v>
+        <v>427.6158128996078</v>
       </c>
       <c r="AB8" t="n">
-        <v>470.834696671109</v>
+        <v>585.0828202874792</v>
       </c>
       <c r="AC8" t="n">
-        <v>425.8988940414648</v>
+        <v>529.2433370881371</v>
       </c>
       <c r="AD8" t="n">
-        <v>344116.0030291615</v>
+        <v>427615.8128996078</v>
       </c>
       <c r="AE8" t="n">
-        <v>470834.6966711091</v>
+        <v>585082.8202874792</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.564366795627146e-06</v>
+        <v>2.300311389249491e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.28645833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>425898.8940414648</v>
+        <v>529243.3370881371</v>
       </c>
     </row>
     <row r="9">
@@ -15191,28 +15191,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>339.8442969986743</v>
+        <v>423.3441068691207</v>
       </c>
       <c r="AB9" t="n">
-        <v>464.9899600258269</v>
+        <v>579.2380836421971</v>
       </c>
       <c r="AC9" t="n">
-        <v>420.611970858469</v>
+        <v>523.9564139051413</v>
       </c>
       <c r="AD9" t="n">
-        <v>339844.2969986743</v>
+        <v>423344.1068691207</v>
       </c>
       <c r="AE9" t="n">
-        <v>464989.9600258269</v>
+        <v>579238.0836421971</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.574019619085213e-06</v>
+        <v>2.314505310905891e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.16927083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>420611.970858469</v>
+        <v>523956.4139051413</v>
       </c>
     </row>
     <row r="10">
@@ -15297,28 +15297,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>334.9401940954803</v>
+        <v>418.4400039659267</v>
       </c>
       <c r="AB10" t="n">
-        <v>458.2799500799263</v>
+        <v>572.5280736962965</v>
       </c>
       <c r="AC10" t="n">
-        <v>414.542354844247</v>
+        <v>517.8867978909193</v>
       </c>
       <c r="AD10" t="n">
-        <v>334940.1940954803</v>
+        <v>418440.0039659267</v>
       </c>
       <c r="AE10" t="n">
-        <v>458279.9500799263</v>
+        <v>572528.0736962964</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.585866266056476e-06</v>
+        <v>2.331925123847837e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.01302083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>414542.354844247</v>
+        <v>517886.7978909193</v>
       </c>
     </row>
     <row r="11">
@@ -15403,28 +15403,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>323.1641770264098</v>
+        <v>414.9370626553802</v>
       </c>
       <c r="AB11" t="n">
-        <v>442.1674840048169</v>
+        <v>567.735194856343</v>
       </c>
       <c r="AC11" t="n">
-        <v>399.9676399173579</v>
+        <v>513.5513446806032</v>
       </c>
       <c r="AD11" t="n">
-        <v>323164.1770264098</v>
+        <v>414937.0626553802</v>
       </c>
       <c r="AE11" t="n">
-        <v>442167.4840048169</v>
+        <v>567735.194856343</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.589815148380231e-06</v>
+        <v>2.337731728161819e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.9609375</v>
       </c>
       <c r="AH11" t="n">
-        <v>399967.6399173579</v>
+        <v>513551.3446806032</v>
       </c>
     </row>
     <row r="12">
@@ -15509,28 +15509,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>320.3088638977638</v>
+        <v>412.0817495267343</v>
       </c>
       <c r="AB12" t="n">
-        <v>438.2607186146786</v>
+        <v>563.8284294662046</v>
       </c>
       <c r="AC12" t="n">
-        <v>396.4337307328747</v>
+        <v>510.01743549612</v>
       </c>
       <c r="AD12" t="n">
-        <v>320308.8638977638</v>
+        <v>412081.7495267342</v>
       </c>
       <c r="AE12" t="n">
-        <v>438260.7186146787</v>
+        <v>563828.4294662046</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.590010154914737e-06</v>
+        <v>2.338018474053867e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.9609375</v>
       </c>
       <c r="AH12" t="n">
-        <v>396433.7307328747</v>
+        <v>510017.43549612</v>
       </c>
     </row>
     <row r="13">
@@ -15615,28 +15615,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>320.1329243462292</v>
+        <v>411.9058099751997</v>
       </c>
       <c r="AB13" t="n">
-        <v>438.0199903583638</v>
+        <v>563.5877012098898</v>
       </c>
       <c r="AC13" t="n">
-        <v>396.2159772434783</v>
+        <v>509.7996820067236</v>
       </c>
       <c r="AD13" t="n">
-        <v>320132.9243462292</v>
+        <v>411905.8099751997</v>
       </c>
       <c r="AE13" t="n">
-        <v>438019.9903583638</v>
+        <v>563587.7012098898</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.594544056842011e-06</v>
+        <v>2.344685316043994e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.90885416666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>396215.9772434784</v>
+        <v>509799.6820067237</v>
       </c>
     </row>
     <row r="14">
@@ -15721,28 +15721,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>321.014237802083</v>
+        <v>412.7871234310535</v>
       </c>
       <c r="AB14" t="n">
-        <v>439.2258423094685</v>
+        <v>564.7935531609945</v>
       </c>
       <c r="AC14" t="n">
-        <v>397.3067443767935</v>
+        <v>510.8904491400388</v>
       </c>
       <c r="AD14" t="n">
-        <v>321014.237802083</v>
+        <v>412787.1234310535</v>
       </c>
       <c r="AE14" t="n">
-        <v>439225.8423094685</v>
+        <v>564793.5531609945</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.594373426124318e-06</v>
+        <v>2.344434413388452e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.90885416666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>397306.7443767935</v>
+        <v>510890.4491400388</v>
       </c>
     </row>
   </sheetData>
@@ -16018,28 +16018,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>652.0911881421536</v>
+        <v>789.3177706208487</v>
       </c>
       <c r="AB2" t="n">
-        <v>892.2199318489563</v>
+        <v>1079.979396005856</v>
       </c>
       <c r="AC2" t="n">
-        <v>807.0677137918302</v>
+        <v>976.907678211658</v>
       </c>
       <c r="AD2" t="n">
-        <v>652091.1881421536</v>
+        <v>789317.7706208488</v>
       </c>
       <c r="AE2" t="n">
-        <v>892219.9318489563</v>
+        <v>1079979.396005855</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.886037585871347e-07</v>
+        <v>1.430284737909987e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>807067.7137918302</v>
+        <v>976907.678211658</v>
       </c>
     </row>
     <row r="3">
@@ -16124,28 +16124,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>485.6163568667768</v>
+        <v>597.0969537204845</v>
       </c>
       <c r="AB3" t="n">
-        <v>664.4417233467682</v>
+        <v>816.9743941388367</v>
       </c>
       <c r="AC3" t="n">
-        <v>601.0283378203677</v>
+        <v>739.0035045929891</v>
       </c>
       <c r="AD3" t="n">
-        <v>485616.3568667768</v>
+        <v>597096.9537204845</v>
       </c>
       <c r="AE3" t="n">
-        <v>664441.7233467682</v>
+        <v>816974.3941388368</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.243154286079024e-06</v>
+        <v>1.798561442642438e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.6484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>601028.3378203677</v>
+        <v>739003.5045929891</v>
       </c>
     </row>
     <row r="4">
@@ -16230,28 +16230,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>436.8957853408012</v>
+        <v>539.7943869861797</v>
       </c>
       <c r="AB4" t="n">
-        <v>597.7800879850099</v>
+        <v>738.5704943221347</v>
       </c>
       <c r="AC4" t="n">
-        <v>540.7287953773425</v>
+        <v>668.0823629342287</v>
       </c>
       <c r="AD4" t="n">
-        <v>436895.7853408012</v>
+        <v>539794.3869861797</v>
       </c>
       <c r="AE4" t="n">
-        <v>597780.0879850099</v>
+        <v>738570.4943221346</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.345548582746433e-06</v>
+        <v>1.946702695900191e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.7734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>540728.7953773425</v>
+        <v>668082.3629342287</v>
       </c>
     </row>
     <row r="5">
@@ -16336,28 +16336,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>413.984838225328</v>
+        <v>516.798099016135</v>
       </c>
       <c r="AB5" t="n">
-        <v>566.4323193819685</v>
+        <v>707.1059585968957</v>
       </c>
       <c r="AC5" t="n">
-        <v>512.372813812906</v>
+        <v>639.6207583378532</v>
       </c>
       <c r="AD5" t="n">
-        <v>413984.838225328</v>
+        <v>516798.099016135</v>
       </c>
       <c r="AE5" t="n">
-        <v>566432.3193819685</v>
+        <v>707105.9585968957</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.395734022726117e-06</v>
+        <v>2.019309610697707e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>512372.813812906</v>
+        <v>639620.7583378532</v>
       </c>
     </row>
     <row r="6">
@@ -16442,28 +16442,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>404.2390343015086</v>
+        <v>498.4703893925374</v>
       </c>
       <c r="AB6" t="n">
-        <v>553.0976804988743</v>
+        <v>682.0291777284064</v>
       </c>
       <c r="AC6" t="n">
-        <v>500.310814149531</v>
+        <v>616.9372702399695</v>
       </c>
       <c r="AD6" t="n">
-        <v>404239.0343015086</v>
+        <v>498470.3893925374</v>
       </c>
       <c r="AE6" t="n">
-        <v>553097.6804988743</v>
+        <v>682029.1777284064</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.429943881952775e-06</v>
+        <v>2.06880349448373e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.41927083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>500310.814149531</v>
+        <v>616937.2702399695</v>
       </c>
     </row>
     <row r="7">
@@ -16548,28 +16548,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>397.5044513731575</v>
+        <v>483.3244929650003</v>
       </c>
       <c r="AB7" t="n">
-        <v>543.8831270274743</v>
+        <v>661.3058940464582</v>
       </c>
       <c r="AC7" t="n">
-        <v>491.9756847287345</v>
+        <v>598.1917876673152</v>
       </c>
       <c r="AD7" t="n">
-        <v>397504.4513731574</v>
+        <v>483324.4929650003</v>
       </c>
       <c r="AE7" t="n">
-        <v>543883.1270274743</v>
+        <v>661305.8940464582</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.451872072323644e-06</v>
+        <v>2.10052859743323e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.10677083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>491975.6847287345</v>
+        <v>598191.7876673152</v>
       </c>
     </row>
     <row r="8">
@@ -16654,28 +16654,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>383.5221287220772</v>
+        <v>477.8387351591266</v>
       </c>
       <c r="AB8" t="n">
-        <v>524.7518963197265</v>
+        <v>653.8000382019079</v>
       </c>
       <c r="AC8" t="n">
-        <v>474.6703118288832</v>
+        <v>591.4022801700339</v>
       </c>
       <c r="AD8" t="n">
-        <v>383522.1287220772</v>
+        <v>477838.7351591266</v>
       </c>
       <c r="AE8" t="n">
-        <v>524751.8963197265</v>
+        <v>653800.0382019079</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.466812416621394e-06</v>
+        <v>2.12214387680333e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.88541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>474670.3118288832</v>
+        <v>591402.2801700339</v>
       </c>
     </row>
     <row r="9">
@@ -16760,28 +16760,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>378.4644138560009</v>
+        <v>472.7810202930502</v>
       </c>
       <c r="AB9" t="n">
-        <v>517.8317077093286</v>
+        <v>646.87984959151</v>
       </c>
       <c r="AC9" t="n">
-        <v>468.410576306916</v>
+        <v>585.1425446480666</v>
       </c>
       <c r="AD9" t="n">
-        <v>378464.4138560009</v>
+        <v>472781.0202930502</v>
       </c>
       <c r="AE9" t="n">
-        <v>517831.7077093286</v>
+        <v>646879.84959151</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.480529299653816e-06</v>
+        <v>2.141989086051784e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.69010416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>468410.576306916</v>
+        <v>585142.5446480666</v>
       </c>
     </row>
     <row r="10">
@@ -16866,28 +16866,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>376.1974872531388</v>
+        <v>470.5140936901881</v>
       </c>
       <c r="AB10" t="n">
-        <v>514.7299987215494</v>
+        <v>643.7781406037307</v>
       </c>
       <c r="AC10" t="n">
-        <v>465.6048900716545</v>
+        <v>582.3368584128051</v>
       </c>
       <c r="AD10" t="n">
-        <v>376197.4872531388</v>
+        <v>470514.0936901881</v>
       </c>
       <c r="AE10" t="n">
-        <v>514729.9987215494</v>
+        <v>643778.1406037307</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.48659954977794e-06</v>
+        <v>2.150771357039949e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.61197916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>465604.8900716545</v>
+        <v>582336.8584128051</v>
       </c>
     </row>
     <row r="11">
@@ -16972,28 +16972,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>371.2223801990467</v>
+        <v>456.9570809363179</v>
       </c>
       <c r="AB11" t="n">
-        <v>507.9228377639079</v>
+        <v>625.2288376606941</v>
       </c>
       <c r="AC11" t="n">
-        <v>459.4473950018998</v>
+        <v>565.5578749085417</v>
       </c>
       <c r="AD11" t="n">
-        <v>371222.3801990466</v>
+        <v>456957.0809363179</v>
       </c>
       <c r="AE11" t="n">
-        <v>507922.8377639079</v>
+        <v>625228.8376606941</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.498175375596039e-06</v>
+        <v>2.167518943575523e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.44270833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>459447.3950018999</v>
+        <v>565557.8749085418</v>
       </c>
     </row>
     <row r="12">
@@ -17078,28 +17078,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>367.9719063843571</v>
+        <v>453.7066071216283</v>
       </c>
       <c r="AB12" t="n">
-        <v>503.4753960898657</v>
+        <v>620.781395986652</v>
       </c>
       <c r="AC12" t="n">
-        <v>455.4244109192047</v>
+        <v>561.5348908258466</v>
       </c>
       <c r="AD12" t="n">
-        <v>367971.9063843571</v>
+        <v>453706.6071216284</v>
       </c>
       <c r="AE12" t="n">
-        <v>503475.3960898658</v>
+        <v>620781.395986652</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.504504434833983e-06</v>
+        <v>2.176675652474037e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.36458333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>455424.4109192047</v>
+        <v>561534.8908258466</v>
       </c>
     </row>
     <row r="13">
@@ -17184,28 +17184,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>365.5072150247782</v>
+        <v>451.2419157620494</v>
       </c>
       <c r="AB13" t="n">
-        <v>500.1030966371811</v>
+        <v>617.4090965339674</v>
       </c>
       <c r="AC13" t="n">
-        <v>452.3739589932323</v>
+        <v>558.4844388998742</v>
       </c>
       <c r="AD13" t="n">
-        <v>365507.2150247782</v>
+        <v>451241.9157620494</v>
       </c>
       <c r="AE13" t="n">
-        <v>500103.0966371811</v>
+        <v>617409.0965339674</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.50916299888273e-06</v>
+        <v>2.183415534860305e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.29947916666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>452373.9589932323</v>
+        <v>558484.4388998742</v>
       </c>
     </row>
     <row r="14">
@@ -17290,28 +17290,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>361.3333071853802</v>
+        <v>447.0680079226515</v>
       </c>
       <c r="AB14" t="n">
-        <v>494.392171791499</v>
+        <v>611.6981716882852</v>
       </c>
       <c r="AC14" t="n">
-        <v>447.2080767994888</v>
+        <v>553.3185567061305</v>
       </c>
       <c r="AD14" t="n">
-        <v>361333.3071853803</v>
+        <v>447068.0079226515</v>
       </c>
       <c r="AE14" t="n">
-        <v>494392.171791499</v>
+        <v>611698.1716882852</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.514433293564141e-06</v>
+        <v>2.191040452307395e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.234375</v>
       </c>
       <c r="AH14" t="n">
-        <v>447208.0767994887</v>
+        <v>553318.5567061305</v>
       </c>
     </row>
     <row r="15">
@@ -17396,28 +17396,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>357.9219508732564</v>
+        <v>443.6566516105277</v>
       </c>
       <c r="AB15" t="n">
-        <v>489.7246035868324</v>
+        <v>607.0306034836185</v>
       </c>
       <c r="AC15" t="n">
-        <v>442.9859747533023</v>
+        <v>549.0964546599441</v>
       </c>
       <c r="AD15" t="n">
-        <v>357921.9508732564</v>
+        <v>443656.6516105277</v>
       </c>
       <c r="AE15" t="n">
-        <v>489724.6035868324</v>
+        <v>607030.6034836185</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.514056843944041e-06</v>
+        <v>2.190495815346889e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20.234375</v>
       </c>
       <c r="AH15" t="n">
-        <v>442985.9747533023</v>
+        <v>549096.4546599442</v>
       </c>
     </row>
     <row r="16">
@@ -17502,28 +17502,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>355.5664298559235</v>
+        <v>441.3011305931947</v>
       </c>
       <c r="AB16" t="n">
-        <v>486.5016758126642</v>
+        <v>603.8076757094505</v>
       </c>
       <c r="AC16" t="n">
-        <v>440.0706386824934</v>
+        <v>546.1811185891352</v>
       </c>
       <c r="AD16" t="n">
-        <v>355566.4298559235</v>
+        <v>441301.1305931947</v>
       </c>
       <c r="AE16" t="n">
-        <v>486501.6758126643</v>
+        <v>603807.6757094505</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.520903521409623e-06</v>
+        <v>2.2004014000661e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>20.14322916666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>440070.6386824934</v>
+        <v>546181.1185891351</v>
       </c>
     </row>
     <row r="17">
@@ -17608,28 +17608,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>354.7855936827934</v>
+        <v>440.5202944200647</v>
       </c>
       <c r="AB17" t="n">
-        <v>485.433301312527</v>
+        <v>602.7393012093133</v>
       </c>
       <c r="AC17" t="n">
-        <v>439.1042283451762</v>
+        <v>545.2147082518181</v>
       </c>
       <c r="AD17" t="n">
-        <v>354785.5936827934</v>
+        <v>440520.2944200647</v>
       </c>
       <c r="AE17" t="n">
-        <v>485433.301312527</v>
+        <v>602739.3012093133</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.520315318878216e-06</v>
+        <v>2.199550404815308e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>20.15625</v>
       </c>
       <c r="AH17" t="n">
-        <v>439104.2283451762</v>
+        <v>545214.7082518181</v>
       </c>
     </row>
     <row r="18">
@@ -17714,28 +17714,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>354.8069579721841</v>
+        <v>440.5416587094552</v>
       </c>
       <c r="AB18" t="n">
-        <v>485.4625328757971</v>
+        <v>602.7685327725833</v>
       </c>
       <c r="AC18" t="n">
-        <v>439.1306700890745</v>
+        <v>545.2411499957165</v>
       </c>
       <c r="AD18" t="n">
-        <v>354806.9579721841</v>
+        <v>440541.6587094552</v>
       </c>
       <c r="AE18" t="n">
-        <v>485462.5328757971</v>
+        <v>602768.5327725833</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.520574127992035e-06</v>
+        <v>2.199924842725656e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>20.14322916666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>439130.6700890745</v>
+        <v>545241.1499957164</v>
       </c>
     </row>
   </sheetData>
@@ -18011,28 +18011,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>430.6347260686638</v>
+        <v>527.7845263756021</v>
       </c>
       <c r="AB2" t="n">
-        <v>589.2134304704308</v>
+        <v>722.1380731970862</v>
       </c>
       <c r="AC2" t="n">
-        <v>532.9797276325756</v>
+        <v>653.2182290183068</v>
       </c>
       <c r="AD2" t="n">
-        <v>430634.7260686638</v>
+        <v>527784.5263756021</v>
       </c>
       <c r="AE2" t="n">
-        <v>589213.4304704308</v>
+        <v>722138.0731970862</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.322910686992309e-06</v>
+        <v>1.986594624398573e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.05208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>532979.7276325757</v>
+        <v>653218.2290183068</v>
       </c>
     </row>
     <row r="3">
@@ -18117,28 +18117,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>350.5663200599421</v>
+        <v>439.6202216251304</v>
       </c>
       <c r="AB3" t="n">
-        <v>479.6603050005267</v>
+        <v>601.507781902875</v>
       </c>
       <c r="AC3" t="n">
-        <v>433.8821986987419</v>
+        <v>544.1007234195378</v>
       </c>
       <c r="AD3" t="n">
-        <v>350566.3200599421</v>
+        <v>439620.2216251304</v>
       </c>
       <c r="AE3" t="n">
-        <v>479660.3050005267</v>
+        <v>601507.7819028749</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.524352111902495e-06</v>
+        <v>2.289096112815449e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.74479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>433882.198698742</v>
+        <v>544100.7234195378</v>
       </c>
     </row>
     <row r="4">
@@ -18223,28 +18223,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>326.7298734356364</v>
+        <v>415.698434146253</v>
       </c>
       <c r="AB4" t="n">
-        <v>447.0462271393441</v>
+        <v>568.7769369194946</v>
       </c>
       <c r="AC4" t="n">
-        <v>404.3807626544848</v>
+        <v>514.4936643433419</v>
       </c>
       <c r="AD4" t="n">
-        <v>326729.8734356364</v>
+        <v>415698.434146253</v>
       </c>
       <c r="AE4" t="n">
-        <v>447046.2271393441</v>
+        <v>568776.9369194945</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.59717545239631e-06</v>
+        <v>2.398453802777628e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.75520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>404380.7626544848</v>
+        <v>514493.6643433419</v>
       </c>
     </row>
     <row r="5">
@@ -18329,28 +18329,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>318.211624953148</v>
+        <v>399.0844659391168</v>
       </c>
       <c r="AB5" t="n">
-        <v>435.391183767003</v>
+        <v>546.0449726619429</v>
       </c>
       <c r="AC5" t="n">
-        <v>393.8380602636438</v>
+        <v>493.9312068500187</v>
       </c>
       <c r="AD5" t="n">
-        <v>318211.624953148</v>
+        <v>399084.4659391168</v>
       </c>
       <c r="AE5" t="n">
-        <v>435391.183767003</v>
+        <v>546044.9726619429</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.631079922699616e-06</v>
+        <v>2.449367624179104e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.32552083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>393838.0602636438</v>
+        <v>493931.2068500187</v>
       </c>
     </row>
     <row r="6">
@@ -18435,28 +18435,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>311.3584042701432</v>
+        <v>392.2312452561119</v>
       </c>
       <c r="AB6" t="n">
-        <v>426.0143048857576</v>
+        <v>536.6680937806975</v>
       </c>
       <c r="AC6" t="n">
-        <v>385.3560975422923</v>
+        <v>485.4492441286671</v>
       </c>
       <c r="AD6" t="n">
-        <v>311358.4042701432</v>
+        <v>392231.245256112</v>
       </c>
       <c r="AE6" t="n">
-        <v>426014.3048857576</v>
+        <v>536668.0937806976</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.653631995288753e-06</v>
+        <v>2.483233724600806e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.0390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>385356.0975422923</v>
+        <v>485449.2441286672</v>
       </c>
     </row>
     <row r="7">
@@ -18541,28 +18541,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>297.7411894706029</v>
+        <v>386.624409326648</v>
       </c>
       <c r="AB7" t="n">
-        <v>407.3826308479084</v>
+        <v>528.9965735058612</v>
       </c>
       <c r="AC7" t="n">
-        <v>368.5026043248967</v>
+        <v>478.5098829818149</v>
       </c>
       <c r="AD7" t="n">
-        <v>297741.1894706029</v>
+        <v>386624.409326648</v>
       </c>
       <c r="AE7" t="n">
-        <v>407382.6308479084</v>
+        <v>528996.5735058612</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.668853371596093e-06</v>
+        <v>2.506091431205973e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.85677083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>368502.6043248967</v>
+        <v>478509.882981815</v>
       </c>
     </row>
     <row r="8">
@@ -18647,28 +18647,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>293.9615915266357</v>
+        <v>374.919683858625</v>
       </c>
       <c r="AB8" t="n">
-        <v>402.2112181968793</v>
+        <v>512.9816517444685</v>
       </c>
       <c r="AC8" t="n">
-        <v>363.8247440391586</v>
+        <v>464.0234028762458</v>
       </c>
       <c r="AD8" t="n">
-        <v>293961.5915266357</v>
+        <v>374919.683858625</v>
       </c>
       <c r="AE8" t="n">
-        <v>402211.2181968793</v>
+        <v>512981.6517444685</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.677100404913114e-06</v>
+        <v>2.518475874249575e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.765625</v>
       </c>
       <c r="AH8" t="n">
-        <v>363824.7440391586</v>
+        <v>464023.4028762458</v>
       </c>
     </row>
     <row r="9">
@@ -18753,28 +18753,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>293.6753449671688</v>
+        <v>374.6334372991581</v>
       </c>
       <c r="AB9" t="n">
-        <v>401.8195630259098</v>
+        <v>512.589996573499</v>
       </c>
       <c r="AC9" t="n">
-        <v>363.4704678880149</v>
+        <v>463.6691267251021</v>
       </c>
       <c r="AD9" t="n">
-        <v>293675.3449671688</v>
+        <v>374633.4372991581</v>
       </c>
       <c r="AE9" t="n">
-        <v>401819.5630259098</v>
+        <v>512589.996573499</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.678322187626746e-06</v>
+        <v>2.520310606552332e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.75260416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>363470.4678880149</v>
+        <v>463669.1267251021</v>
       </c>
     </row>
   </sheetData>
@@ -19050,28 +19050,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>356.3749002292853</v>
+        <v>450.5026119336584</v>
       </c>
       <c r="AB2" t="n">
-        <v>487.6078606446936</v>
+        <v>616.3975484201796</v>
       </c>
       <c r="AC2" t="n">
-        <v>441.0712507866939</v>
+        <v>557.5694315183497</v>
       </c>
       <c r="AD2" t="n">
-        <v>356374.9002292854</v>
+        <v>450502.6119336584</v>
       </c>
       <c r="AE2" t="n">
-        <v>487607.8606446936</v>
+        <v>616397.5484201796</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.491648735135538e-06</v>
+        <v>2.287811397987671e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.15104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>441071.2507866939</v>
+        <v>557569.4315183497</v>
       </c>
     </row>
     <row r="3">
@@ -19156,28 +19156,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>301.4877303856899</v>
+        <v>387.8425014440031</v>
       </c>
       <c r="AB3" t="n">
-        <v>412.5088134136503</v>
+        <v>530.663220879258</v>
       </c>
       <c r="AC3" t="n">
-        <v>373.1395512212065</v>
+        <v>480.0174678690491</v>
       </c>
       <c r="AD3" t="n">
-        <v>301487.7303856899</v>
+        <v>387842.5014440031</v>
       </c>
       <c r="AE3" t="n">
-        <v>412508.8134136503</v>
+        <v>530663.220879258</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.659723699265514e-06</v>
+        <v>2.545595827790435e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.80729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>373139.5512212066</v>
+        <v>480017.4678690491</v>
       </c>
     </row>
     <row r="4">
@@ -19262,28 +19262,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>289.0401065468055</v>
+        <v>367.5367751215892</v>
       </c>
       <c r="AB4" t="n">
-        <v>395.4774253268819</v>
+        <v>502.8800302995102</v>
       </c>
       <c r="AC4" t="n">
-        <v>357.7336149097361</v>
+        <v>454.8858660042796</v>
       </c>
       <c r="AD4" t="n">
-        <v>289040.1065468055</v>
+        <v>367536.7751215892</v>
       </c>
       <c r="AE4" t="n">
-        <v>395477.4253268819</v>
+        <v>502880.0302995102</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.718956933193005e-06</v>
+        <v>2.636444607752475e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>357733.6149097361</v>
+        <v>454885.8660042796</v>
       </c>
     </row>
     <row r="5">
@@ -19368,28 +19368,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>272.578272423603</v>
+        <v>351.1601923444074</v>
       </c>
       <c r="AB5" t="n">
-        <v>372.9536176346506</v>
+        <v>480.4728672599283</v>
       </c>
       <c r="AC5" t="n">
-        <v>337.3594478112887</v>
+        <v>434.6172111565445</v>
       </c>
       <c r="AD5" t="n">
-        <v>272578.272423603</v>
+        <v>351160.1923444074</v>
       </c>
       <c r="AE5" t="n">
-        <v>372953.6176346507</v>
+        <v>480472.8672599283</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.748971266588672e-06</v>
+        <v>2.682478994017932e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.73958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>337359.4478112887</v>
+        <v>434617.2111565445</v>
       </c>
     </row>
     <row r="6">
@@ -19474,28 +19474,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>272.1272904358115</v>
+        <v>350.7092103566158</v>
       </c>
       <c r="AB6" t="n">
-        <v>372.3365641830331</v>
+        <v>479.8558138083107</v>
       </c>
       <c r="AC6" t="n">
-        <v>336.8012850750536</v>
+        <v>434.0590484203094</v>
       </c>
       <c r="AD6" t="n">
-        <v>272127.2904358114</v>
+        <v>350709.2103566158</v>
       </c>
       <c r="AE6" t="n">
-        <v>372336.5641830331</v>
+        <v>479855.8138083107</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.753240089624628e-06</v>
+        <v>2.689026287470881e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.6875</v>
       </c>
       <c r="AH6" t="n">
-        <v>336801.2850750536</v>
+        <v>434059.0484203094</v>
       </c>
     </row>
   </sheetData>
@@ -36128,28 +36128,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>302.755350807641</v>
+        <v>394.6037901795946</v>
       </c>
       <c r="AB2" t="n">
-        <v>414.24322759843</v>
+        <v>539.9143144143014</v>
       </c>
       <c r="AC2" t="n">
-        <v>374.7084353504565</v>
+        <v>488.3856500210993</v>
       </c>
       <c r="AD2" t="n">
-        <v>302755.3508076411</v>
+        <v>394603.7901795947</v>
       </c>
       <c r="AE2" t="n">
-        <v>414243.22759843</v>
+        <v>539914.3144143014</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.624201260924364e-06</v>
+        <v>2.537782432230719e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.9921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>374708.4353504564</v>
+        <v>488385.6500210993</v>
       </c>
     </row>
     <row r="3">
@@ -36234,28 +36234,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>271.0771631649264</v>
+        <v>347.67451271982</v>
       </c>
       <c r="AB3" t="n">
-        <v>370.8997337226627</v>
+        <v>475.7036066202359</v>
       </c>
       <c r="AC3" t="n">
-        <v>335.5015836972167</v>
+        <v>430.3031220586049</v>
       </c>
       <c r="AD3" t="n">
-        <v>271077.1631649265</v>
+        <v>347674.51271982</v>
       </c>
       <c r="AE3" t="n">
-        <v>370899.7337226627</v>
+        <v>475703.6066202358</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.770776256928549e-06</v>
+        <v>2.766802972241881e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.16927083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>335501.5836972167</v>
+        <v>430303.1220586049</v>
       </c>
     </row>
     <row r="4">
@@ -36340,28 +36340,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>254.5356038308246</v>
+        <v>331.2182047317419</v>
       </c>
       <c r="AB4" t="n">
-        <v>348.2668424794861</v>
+        <v>453.1873600298775</v>
       </c>
       <c r="AC4" t="n">
-        <v>315.0287438289313</v>
+        <v>409.9357944410798</v>
       </c>
       <c r="AD4" t="n">
-        <v>254535.6038308246</v>
+        <v>331218.2047317419</v>
       </c>
       <c r="AE4" t="n">
-        <v>348266.8424794861</v>
+        <v>453187.3600298775</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.808873687589067e-06</v>
+        <v>2.826329456163195e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.73958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>315028.7438289314</v>
+        <v>409935.7944410798</v>
       </c>
     </row>
     <row r="5">
@@ -36446,28 +36446,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>255.4569070912819</v>
+        <v>332.1395079921992</v>
       </c>
       <c r="AB5" t="n">
-        <v>349.5274102454746</v>
+        <v>454.4479277958666</v>
       </c>
       <c r="AC5" t="n">
-        <v>316.1690047765522</v>
+        <v>411.0760553887009</v>
       </c>
       <c r="AD5" t="n">
-        <v>255456.9070912819</v>
+        <v>332139.5079921992</v>
       </c>
       <c r="AE5" t="n">
-        <v>349527.4102454746</v>
+        <v>454447.9277958666</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.808379984383964e-06</v>
+        <v>2.825558054643697e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.75260416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>316169.0047765522</v>
+        <v>411076.0553887009</v>
       </c>
     </row>
   </sheetData>
@@ -36743,28 +36743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>230.689349932101</v>
+        <v>303.5216601777302</v>
       </c>
       <c r="AB2" t="n">
-        <v>315.6393458727949</v>
+        <v>415.2917258857694</v>
       </c>
       <c r="AC2" t="n">
-        <v>285.5151697053932</v>
+        <v>375.6568664328288</v>
       </c>
       <c r="AD2" t="n">
-        <v>230689.3499321009</v>
+        <v>303521.6601777302</v>
       </c>
       <c r="AE2" t="n">
-        <v>315639.3458727949</v>
+        <v>415291.7258857694</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.883979752148643e-06</v>
+        <v>3.070276837312054e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.3515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>285515.1697053932</v>
+        <v>375656.8664328288</v>
       </c>
     </row>
     <row r="3">
@@ -36849,28 +36849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>230.7355196684259</v>
+        <v>303.5678299140552</v>
       </c>
       <c r="AB3" t="n">
-        <v>315.7025173428997</v>
+        <v>415.3548973558742</v>
       </c>
       <c r="AC3" t="n">
-        <v>285.5723121790529</v>
+        <v>375.7140089064885</v>
       </c>
       <c r="AD3" t="n">
-        <v>230735.5196684259</v>
+        <v>303567.8299140552</v>
       </c>
       <c r="AE3" t="n">
-        <v>315702.5173428998</v>
+        <v>415354.8973558742</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.89245805845392e-06</v>
+        <v>3.084093730746838e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.26041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>285572.3121790529</v>
+        <v>375714.0089064885</v>
       </c>
     </row>
   </sheetData>
@@ -37146,28 +37146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>508.474508649636</v>
+        <v>624.4646553981406</v>
       </c>
       <c r="AB2" t="n">
-        <v>695.7172550465615</v>
+        <v>854.4200909519913</v>
       </c>
       <c r="AC2" t="n">
-        <v>629.3189766702171</v>
+        <v>772.8754366576618</v>
       </c>
       <c r="AD2" t="n">
-        <v>508474.5086496361</v>
+        <v>624464.6553981407</v>
       </c>
       <c r="AE2" t="n">
-        <v>695717.2550465615</v>
+        <v>854420.0909519913</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.18341828575342e-06</v>
+        <v>1.748359459384143e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.08333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>629318.9766702171</v>
+        <v>772875.4366576618</v>
       </c>
     </row>
     <row r="3">
@@ -37252,28 +37252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>399.3044770462883</v>
+        <v>498.7854838623711</v>
       </c>
       <c r="AB3" t="n">
-        <v>546.34600156498</v>
+        <v>682.4603038830197</v>
       </c>
       <c r="AC3" t="n">
-        <v>494.2035059770469</v>
+        <v>617.327250319476</v>
       </c>
       <c r="AD3" t="n">
-        <v>399304.4770462883</v>
+        <v>498785.4838623711</v>
       </c>
       <c r="AE3" t="n">
-        <v>546346.00156498</v>
+        <v>682460.3038830197</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.40777266878762e-06</v>
+        <v>2.079816318344548e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.7734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>494203.5059770469</v>
+        <v>617327.250319476</v>
       </c>
     </row>
     <row r="4">
@@ -37358,28 +37358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>370.0454112621505</v>
+        <v>461.1439710929915</v>
       </c>
       <c r="AB4" t="n">
-        <v>506.3124569402418</v>
+        <v>630.9575254856122</v>
       </c>
       <c r="AC4" t="n">
-        <v>457.9907066638607</v>
+        <v>570.7398248077135</v>
       </c>
       <c r="AD4" t="n">
-        <v>370045.4112621505</v>
+        <v>461143.9710929915</v>
       </c>
       <c r="AE4" t="n">
-        <v>506312.4569402418</v>
+        <v>630957.5254856122</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.4927333815991e-06</v>
+        <v>2.205335644611678e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.47135416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>457990.7066638608</v>
+        <v>570739.8248077135</v>
       </c>
     </row>
     <row r="5">
@@ -37464,28 +37464,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>351.845492448065</v>
+        <v>443.0293036249265</v>
       </c>
       <c r="AB5" t="n">
-        <v>481.4105250950594</v>
+        <v>606.1722382930792</v>
       </c>
       <c r="AC5" t="n">
-        <v>435.4653802439017</v>
+        <v>548.3200106384668</v>
       </c>
       <c r="AD5" t="n">
-        <v>351845.492448065</v>
+        <v>443029.3036249265</v>
       </c>
       <c r="AE5" t="n">
-        <v>481410.5250950594</v>
+        <v>606172.2382930792</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.534093566334912e-06</v>
+        <v>2.266440387622046e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.8984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>435465.3802439017</v>
+        <v>548320.0106384668</v>
       </c>
     </row>
     <row r="6">
@@ -37570,28 +37570,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>344.0257623580422</v>
+        <v>435.2095735349037</v>
       </c>
       <c r="AB6" t="n">
-        <v>470.7112254037463</v>
+        <v>595.472938601766</v>
       </c>
       <c r="AC6" t="n">
-        <v>425.7872066985661</v>
+        <v>538.6418370931311</v>
       </c>
       <c r="AD6" t="n">
-        <v>344025.7623580422</v>
+        <v>435209.5735349037</v>
       </c>
       <c r="AE6" t="n">
-        <v>470711.2254037462</v>
+        <v>595472.938601766</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.562036310189166e-06</v>
+        <v>2.307722461024884e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.52083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>425787.2066985661</v>
+        <v>538641.8370931312</v>
       </c>
     </row>
     <row r="7">
@@ -37676,28 +37676,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>339.154287612064</v>
+        <v>422.0409926582554</v>
       </c>
       <c r="AB7" t="n">
-        <v>464.045858742001</v>
+        <v>577.4551052895496</v>
       </c>
       <c r="AC7" t="n">
-        <v>419.757973276117</v>
+        <v>522.3436005040446</v>
       </c>
       <c r="AD7" t="n">
-        <v>339154.287612064</v>
+        <v>422040.9926582554</v>
       </c>
       <c r="AE7" t="n">
-        <v>464045.858742001</v>
+        <v>577455.1052895496</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.576389279058796e-06</v>
+        <v>2.328927261724315e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.33854166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>419757.973276117</v>
+        <v>522343.6005040446</v>
       </c>
     </row>
     <row r="8">
@@ -37782,28 +37782,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>332.9583789493188</v>
+        <v>415.8450839955102</v>
       </c>
       <c r="AB8" t="n">
-        <v>455.5683431654344</v>
+        <v>568.9775897129829</v>
       </c>
       <c r="AC8" t="n">
-        <v>412.0895398879101</v>
+        <v>514.6751671158377</v>
       </c>
       <c r="AD8" t="n">
-        <v>332958.3789493188</v>
+        <v>415845.0839955101</v>
       </c>
       <c r="AE8" t="n">
-        <v>455568.3431654344</v>
+        <v>568977.5897129829</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.593105687056186e-06</v>
+        <v>2.353623762024338e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.1171875</v>
       </c>
       <c r="AH8" t="n">
-        <v>412089.5398879101</v>
+        <v>514675.1671158377</v>
       </c>
     </row>
     <row r="9">
@@ -37888,28 +37888,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>319.7342225477212</v>
+        <v>410.8326928700111</v>
       </c>
       <c r="AB9" t="n">
-        <v>437.4744689681631</v>
+        <v>562.1194150439852</v>
       </c>
       <c r="AC9" t="n">
-        <v>395.7225196491144</v>
+        <v>508.4715270117406</v>
       </c>
       <c r="AD9" t="n">
-        <v>319734.2225477212</v>
+        <v>410832.6928700111</v>
       </c>
       <c r="AE9" t="n">
-        <v>437474.4689681631</v>
+        <v>562119.4150439852</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.602953350088523e-06</v>
+        <v>2.36817251036014e-06</v>
       </c>
       <c r="AG9" t="n">
         <v>20</v>
       </c>
       <c r="AH9" t="n">
-        <v>395722.5196491143</v>
+        <v>508471.5270117406</v>
       </c>
     </row>
     <row r="10">
@@ -37994,28 +37994,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>316.1302517552163</v>
+        <v>407.2287220775062</v>
       </c>
       <c r="AB10" t="n">
-        <v>432.5433571338879</v>
+        <v>557.1883032097102</v>
       </c>
       <c r="AC10" t="n">
-        <v>391.2620262074435</v>
+        <v>504.0110335700697</v>
       </c>
       <c r="AD10" t="n">
-        <v>316130.2517552163</v>
+        <v>407228.7220775062</v>
       </c>
       <c r="AE10" t="n">
-        <v>432543.3571338879</v>
+        <v>557188.3032097102</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.607458655925816e-06</v>
+        <v>2.374828562723769e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.94791666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>391262.0262074434</v>
+        <v>504011.0335700697</v>
       </c>
     </row>
     <row r="11">
@@ -38100,28 +38100,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>314.699832726219</v>
+        <v>405.7983030485088</v>
       </c>
       <c r="AB11" t="n">
-        <v>430.5861947127801</v>
+        <v>555.2311407886021</v>
       </c>
       <c r="AC11" t="n">
-        <v>389.4916526209113</v>
+        <v>502.2406599835376</v>
       </c>
       <c r="AD11" t="n">
-        <v>314699.832726219</v>
+        <v>405798.3030485088</v>
       </c>
       <c r="AE11" t="n">
-        <v>430586.1947127801</v>
+        <v>555231.1407886022</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.61253020238747e-06</v>
+        <v>2.382321168116707e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.8828125</v>
       </c>
       <c r="AH11" t="n">
-        <v>389491.6526209114</v>
+        <v>502240.6599835376</v>
       </c>
     </row>
     <row r="12">
@@ -38206,28 +38206,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>314.523134963548</v>
+        <v>405.621605285838</v>
       </c>
       <c r="AB12" t="n">
-        <v>430.3444290385386</v>
+        <v>554.9893751143608</v>
       </c>
       <c r="AC12" t="n">
-        <v>389.2729607232993</v>
+        <v>502.0219680859256</v>
       </c>
       <c r="AD12" t="n">
-        <v>314523.134963548</v>
+        <v>405621.605285838</v>
       </c>
       <c r="AE12" t="n">
-        <v>430344.4290385386</v>
+        <v>554989.3751143608</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.61255482154505e-06</v>
+        <v>2.382357539987547e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.8828125</v>
       </c>
       <c r="AH12" t="n">
-        <v>389272.9607232993</v>
+        <v>502021.9680859256</v>
       </c>
     </row>
   </sheetData>
@@ -38503,28 +38503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>626.7710819479238</v>
+        <v>754.6205732125028</v>
       </c>
       <c r="AB2" t="n">
-        <v>857.5758455097626</v>
+        <v>1032.50515977944</v>
       </c>
       <c r="AC2" t="n">
-        <v>775.7300104295688</v>
+        <v>933.964316460183</v>
       </c>
       <c r="AD2" t="n">
-        <v>626771.0819479238</v>
+        <v>754620.5732125028</v>
       </c>
       <c r="AE2" t="n">
-        <v>857575.8455097626</v>
+        <v>1032505.15977944</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.024037985323496e-06</v>
+        <v>1.487076233113736e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.16927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>775730.0104295688</v>
+        <v>933964.316460183</v>
       </c>
     </row>
     <row r="3">
@@ -38609,28 +38609,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>470.5228668452087</v>
+        <v>572.7854095876678</v>
       </c>
       <c r="AB3" t="n">
-        <v>643.7901444214741</v>
+        <v>783.7102669066865</v>
       </c>
       <c r="AC3" t="n">
-        <v>582.3477166030306</v>
+        <v>708.9140589773795</v>
       </c>
       <c r="AD3" t="n">
-        <v>470522.8668452087</v>
+        <v>572785.4095876678</v>
       </c>
       <c r="AE3" t="n">
-        <v>643790.1444214741</v>
+        <v>783710.2669066865</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.275747542239569e-06</v>
+        <v>1.852601052604915e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.21875</v>
       </c>
       <c r="AH3" t="n">
-        <v>582347.7166030306</v>
+        <v>708914.0589773795</v>
       </c>
     </row>
     <row r="4">
@@ -38715,28 +38715,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>425.8428433345856</v>
+        <v>528.1052965684937</v>
       </c>
       <c r="AB4" t="n">
-        <v>582.6569651107188</v>
+        <v>722.5769651263828</v>
       </c>
       <c r="AC4" t="n">
-        <v>527.0490021247377</v>
+        <v>653.61523371786</v>
       </c>
       <c r="AD4" t="n">
-        <v>425842.8433345856</v>
+        <v>528105.2965684937</v>
       </c>
       <c r="AE4" t="n">
-        <v>582656.9651107189</v>
+        <v>722576.9651263828</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.369931042801003e-06</v>
+        <v>1.989371413903688e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.55208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>527049.0021247377</v>
+        <v>653615.23371786</v>
       </c>
     </row>
     <row r="5">
@@ -38821,28 +38821,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>403.1678479840767</v>
+        <v>496.9866592318497</v>
       </c>
       <c r="AB5" t="n">
-        <v>551.6320361219589</v>
+        <v>679.9990726649987</v>
       </c>
       <c r="AC5" t="n">
-        <v>498.9850488149036</v>
+        <v>615.100915554543</v>
       </c>
       <c r="AD5" t="n">
-        <v>403167.8479840767</v>
+        <v>496986.6592318497</v>
       </c>
       <c r="AE5" t="n">
-        <v>551632.0361219589</v>
+        <v>679999.0726649987</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.421340525349271e-06</v>
+        <v>2.064026671569793e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.73177083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>498985.0488149036</v>
+        <v>615100.915554543</v>
       </c>
     </row>
     <row r="6">
@@ -38927,28 +38927,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>393.5545180504056</v>
+        <v>487.2027370975865</v>
       </c>
       <c r="AB6" t="n">
-        <v>538.4786539965257</v>
+        <v>666.6122787647186</v>
       </c>
       <c r="AC6" t="n">
-        <v>487.087007018634</v>
+        <v>602.9917384756224</v>
       </c>
       <c r="AD6" t="n">
-        <v>393554.5180504057</v>
+        <v>487202.7370975865</v>
       </c>
       <c r="AE6" t="n">
-        <v>538478.6539965257</v>
+        <v>666612.2787647186</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.455479078827333e-06</v>
+        <v>2.113601621169021e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.22395833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>487087.007018634</v>
+        <v>602991.7384756224</v>
       </c>
     </row>
     <row r="7">
@@ -39033,28 +39033,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>378.9896621571324</v>
+        <v>472.7231325503338</v>
       </c>
       <c r="AB7" t="n">
-        <v>518.5503756072566</v>
+        <v>646.8006450280988</v>
       </c>
       <c r="AC7" t="n">
-        <v>469.0606555493222</v>
+        <v>585.0708992570229</v>
       </c>
       <c r="AD7" t="n">
-        <v>378989.6621571324</v>
+        <v>472723.1325503339</v>
       </c>
       <c r="AE7" t="n">
-        <v>518550.3756072565</v>
+        <v>646800.6450280987</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.475620588141352e-06</v>
+        <v>2.142850496922839e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.9375</v>
       </c>
       <c r="AH7" t="n">
-        <v>469060.6555493223</v>
+        <v>585070.8992570229</v>
       </c>
     </row>
     <row r="8">
@@ -39139,28 +39139,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>374.1563398155802</v>
+        <v>467.8898102087816</v>
       </c>
       <c r="AB8" t="n">
-        <v>511.9372107484123</v>
+        <v>640.1874801692544</v>
       </c>
       <c r="AC8" t="n">
-        <v>463.0786418629709</v>
+        <v>579.0888855706717</v>
       </c>
       <c r="AD8" t="n">
-        <v>374156.3398155802</v>
+        <v>467889.8102087816</v>
       </c>
       <c r="AE8" t="n">
-        <v>511937.2107484123</v>
+        <v>640187.4801692544</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.489427841876051e-06</v>
+        <v>2.162900962987294e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.7421875</v>
       </c>
       <c r="AH8" t="n">
-        <v>463078.6418629709</v>
+        <v>579088.8855706716</v>
       </c>
     </row>
     <row r="9">
@@ -39245,28 +39245,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>369.5684662392326</v>
+        <v>463.301936632434</v>
       </c>
       <c r="AB9" t="n">
-        <v>505.659879718556</v>
+        <v>633.9101491393981</v>
       </c>
       <c r="AC9" t="n">
-        <v>457.4004104963147</v>
+        <v>573.4106542040154</v>
       </c>
       <c r="AD9" t="n">
-        <v>369568.4662392326</v>
+        <v>463301.936632434</v>
       </c>
       <c r="AE9" t="n">
-        <v>505659.879718556</v>
+        <v>633910.1491393981</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.501218572298981e-06</v>
+        <v>2.180023096379105e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.57291666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>457400.4104963148</v>
+        <v>573410.6542040154</v>
       </c>
     </row>
     <row r="10">
@@ -39351,28 +39351,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>365.2380705285822</v>
+        <v>450.4426475896281</v>
       </c>
       <c r="AB10" t="n">
-        <v>499.7348412636687</v>
+        <v>616.3155025592374</v>
       </c>
       <c r="AC10" t="n">
-        <v>452.0408493957182</v>
+        <v>557.4952159992237</v>
       </c>
       <c r="AD10" t="n">
-        <v>365238.0705285822</v>
+        <v>450442.6475896281</v>
       </c>
       <c r="AE10" t="n">
-        <v>499734.8412636687</v>
+        <v>616315.5025592374</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.511277465054157e-06</v>
+        <v>2.194630308769705e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.44270833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>452040.8493957182</v>
+        <v>557495.2159992236</v>
       </c>
     </row>
     <row r="11">
@@ -39457,28 +39457,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>362.561505989904</v>
+        <v>447.76608305095</v>
       </c>
       <c r="AB11" t="n">
-        <v>496.0726475801557</v>
+        <v>612.6533088757242</v>
       </c>
       <c r="AC11" t="n">
-        <v>448.7281703374385</v>
+        <v>554.1825369409439</v>
       </c>
       <c r="AD11" t="n">
-        <v>362561.505989904</v>
+        <v>447766.08305095</v>
       </c>
       <c r="AE11" t="n">
-        <v>496072.6475801557</v>
+        <v>612653.3088757242</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.51713724456012e-06</v>
+        <v>2.203139699006681e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.36458333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>448728.1703374385</v>
+        <v>554182.5369409439</v>
       </c>
     </row>
     <row r="12">
@@ -39563,28 +39563,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>358.7693910770664</v>
+        <v>443.9739681381122</v>
       </c>
       <c r="AB12" t="n">
-        <v>490.8841086601083</v>
+        <v>607.464769955677</v>
       </c>
       <c r="AC12" t="n">
-        <v>444.0348182897604</v>
+        <v>549.4891848932658</v>
       </c>
       <c r="AD12" t="n">
-        <v>358769.3910770664</v>
+        <v>443973.9681381122</v>
       </c>
       <c r="AE12" t="n">
-        <v>490884.1086601084</v>
+        <v>607464.769955677</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.522925852655079e-06</v>
+        <v>2.2115457363258e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.28645833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>444034.8182897604</v>
+        <v>549489.1848932658</v>
       </c>
     </row>
     <row r="13">
@@ -39669,28 +39669,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>354.4553200315211</v>
+        <v>439.659897092567</v>
       </c>
       <c r="AB13" t="n">
-        <v>484.9814063322111</v>
+        <v>601.5620676277797</v>
       </c>
       <c r="AC13" t="n">
-        <v>438.6954615875429</v>
+        <v>544.1498281910483</v>
       </c>
       <c r="AD13" t="n">
-        <v>354455.3200315211</v>
+        <v>439659.8970925669</v>
       </c>
       <c r="AE13" t="n">
-        <v>484981.4063322111</v>
+        <v>601562.0676277797</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.528429775106025e-06</v>
+        <v>2.219538361973486e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.20833333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>438695.4615875429</v>
+        <v>544149.8281910483</v>
       </c>
     </row>
     <row r="14">
@@ -39775,28 +39775,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>350.9329832622253</v>
+        <v>436.1375603232711</v>
       </c>
       <c r="AB14" t="n">
-        <v>480.1619897699294</v>
+        <v>596.7426510654981</v>
       </c>
       <c r="AC14" t="n">
-        <v>434.3360033778717</v>
+        <v>539.7903699813772</v>
       </c>
       <c r="AD14" t="n">
-        <v>350932.9832622253</v>
+        <v>436137.5603232711</v>
       </c>
       <c r="AE14" t="n">
-        <v>480161.9897699294</v>
+        <v>596742.6510654981</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.532984745410256e-06</v>
+        <v>2.2261529487164e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.15625</v>
       </c>
       <c r="AH14" t="n">
-        <v>434336.0033778718</v>
+        <v>539790.3699813773</v>
       </c>
     </row>
     <row r="15">
@@ -39881,28 +39881,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>349.2005958837076</v>
+        <v>434.4051729447534</v>
       </c>
       <c r="AB15" t="n">
-        <v>477.7916609311044</v>
+        <v>594.3723222266731</v>
       </c>
       <c r="AC15" t="n">
-        <v>432.1918953966468</v>
+        <v>537.6462620001523</v>
       </c>
       <c r="AD15" t="n">
-        <v>349200.5958837076</v>
+        <v>434405.1729447534</v>
       </c>
       <c r="AE15" t="n">
-        <v>477791.6609311044</v>
+        <v>594372.3222266731</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.539034315345562e-06</v>
+        <v>2.234937946734331e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20.06510416666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>432191.8953966468</v>
+        <v>537646.2620001524</v>
       </c>
     </row>
     <row r="16">
@@ -39987,28 +39987,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>348.5426049319238</v>
+        <v>433.7471819929696</v>
       </c>
       <c r="AB16" t="n">
-        <v>476.8913686823618</v>
+        <v>593.4720299779303</v>
       </c>
       <c r="AC16" t="n">
-        <v>431.377525776556</v>
+        <v>536.8318923800614</v>
       </c>
       <c r="AD16" t="n">
-        <v>348542.6049319238</v>
+        <v>433747.1819929696</v>
       </c>
       <c r="AE16" t="n">
-        <v>476891.3686823618</v>
+        <v>593472.0299779304</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.53815653460985e-06</v>
+        <v>2.233663260747415e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>20.078125</v>
       </c>
       <c r="AH16" t="n">
-        <v>431377.525776556</v>
+        <v>536831.8923800614</v>
       </c>
     </row>
     <row r="17">
@@ -40093,28 +40093,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>349.2508976171314</v>
+        <v>434.4554746781773</v>
       </c>
       <c r="AB17" t="n">
-        <v>477.8604859819308</v>
+        <v>594.4411472774995</v>
       </c>
       <c r="AC17" t="n">
-        <v>432.2541518812189</v>
+        <v>537.7085184847243</v>
       </c>
       <c r="AD17" t="n">
-        <v>349250.8976171314</v>
+        <v>434455.4746781773</v>
       </c>
       <c r="AE17" t="n">
-        <v>477860.4859819307</v>
+        <v>594441.1472774994</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.538203982217186e-06</v>
+        <v>2.233732162692653e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>20.078125</v>
       </c>
       <c r="AH17" t="n">
-        <v>432254.1518812189</v>
+        <v>537708.5184847243</v>
       </c>
     </row>
   </sheetData>
@@ -40390,28 +40390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.3297537613446</v>
+        <v>292.4864829725095</v>
       </c>
       <c r="AB2" t="n">
-        <v>302.8331334757316</v>
+        <v>400.1929095959273</v>
       </c>
       <c r="AC2" t="n">
-        <v>273.9311642458696</v>
+        <v>361.9990599783675</v>
       </c>
       <c r="AD2" t="n">
-        <v>221329.7537613446</v>
+        <v>292486.4829725095</v>
       </c>
       <c r="AE2" t="n">
-        <v>302833.1334757316</v>
+        <v>400192.9095959273</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.88840411950459e-06</v>
+        <v>3.147857157906183e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>273931.1642458696</v>
+        <v>361999.0599783675</v>
       </c>
     </row>
   </sheetData>
@@ -40687,28 +40687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>375.4525636693563</v>
+        <v>478.5349146458195</v>
       </c>
       <c r="AB2" t="n">
-        <v>513.7107614105092</v>
+        <v>654.7525816888725</v>
       </c>
       <c r="AC2" t="n">
-        <v>464.6829273390714</v>
+        <v>592.2639142435056</v>
       </c>
       <c r="AD2" t="n">
-        <v>375452.5636693563</v>
+        <v>478534.9146458195</v>
       </c>
       <c r="AE2" t="n">
-        <v>513710.7614105092</v>
+        <v>654752.5816888725</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.431629265471467e-06</v>
+        <v>2.178806058971803e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.76302083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>464682.9273390714</v>
+        <v>592263.9142435056</v>
       </c>
     </row>
     <row r="3">
@@ -40793,28 +40793,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>323.1449932007797</v>
+        <v>402.5704924674894</v>
       </c>
       <c r="AB3" t="n">
-        <v>442.1412358482591</v>
+        <v>550.8147079506987</v>
       </c>
       <c r="AC3" t="n">
-        <v>399.9438968480225</v>
+        <v>498.2457252971813</v>
       </c>
       <c r="AD3" t="n">
-        <v>323144.9932007797</v>
+        <v>402570.4924674894</v>
       </c>
       <c r="AE3" t="n">
-        <v>442141.2358482591</v>
+        <v>550814.7079506987</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.612382486841562e-06</v>
+        <v>2.453895583472505e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.09375</v>
       </c>
       <c r="AH3" t="n">
-        <v>399943.8968480225</v>
+        <v>498245.7252971812</v>
       </c>
     </row>
     <row r="4">
@@ -40899,28 +40899,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>302.4883657780215</v>
+        <v>381.8285241901596</v>
       </c>
       <c r="AB4" t="n">
-        <v>413.8779269023562</v>
+        <v>522.4346318825982</v>
       </c>
       <c r="AC4" t="n">
-        <v>374.3779984401133</v>
+        <v>472.5742038573333</v>
       </c>
       <c r="AD4" t="n">
-        <v>302488.3657780215</v>
+        <v>381828.5241901596</v>
       </c>
       <c r="AE4" t="n">
-        <v>413877.9269023562</v>
+        <v>522434.6318825982</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.67558602001506e-06</v>
+        <v>2.550085459125467e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.29947916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>374377.9984401133</v>
+        <v>472574.2038573333</v>
       </c>
     </row>
     <row r="5">
@@ -41005,28 +41005,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>285.0428640026523</v>
+        <v>372.2401330274837</v>
       </c>
       <c r="AB5" t="n">
-        <v>390.0082217320764</v>
+        <v>509.3153720838614</v>
       </c>
       <c r="AC5" t="n">
-        <v>352.7863844299434</v>
+        <v>460.7070278007911</v>
       </c>
       <c r="AD5" t="n">
-        <v>285042.8640026523</v>
+        <v>372240.1330274837</v>
       </c>
       <c r="AE5" t="n">
-        <v>390008.2217320764</v>
+        <v>509315.3720838614</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.706573779561884e-06</v>
+        <v>2.597245935572104e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.93489583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>352786.3844299434</v>
+        <v>460707.0278007911</v>
       </c>
     </row>
     <row r="6">
@@ -41111,28 +41111,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>280.0905316003036</v>
+        <v>359.5159413584623</v>
       </c>
       <c r="AB6" t="n">
-        <v>383.232222057697</v>
+        <v>491.9055716905881</v>
       </c>
       <c r="AC6" t="n">
-        <v>346.6570766543114</v>
+        <v>444.9587943222436</v>
       </c>
       <c r="AD6" t="n">
-        <v>280090.5316003036</v>
+        <v>359515.9413584623</v>
       </c>
       <c r="AE6" t="n">
-        <v>383232.222057697</v>
+        <v>491905.5716905881</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.724340791780974e-06</v>
+        <v>2.62428566911655e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.7265625</v>
       </c>
       <c r="AH6" t="n">
-        <v>346657.0766543114</v>
+        <v>444958.7943222436</v>
       </c>
     </row>
     <row r="7">
@@ -41217,28 +41217,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>278.8058153292505</v>
+        <v>358.2312250874093</v>
       </c>
       <c r="AB7" t="n">
-        <v>381.4744165779603</v>
+        <v>490.1477662108515</v>
       </c>
       <c r="AC7" t="n">
-        <v>345.0670336624653</v>
+        <v>443.3687513303976</v>
       </c>
       <c r="AD7" t="n">
-        <v>278805.8153292505</v>
+        <v>358231.2250874093</v>
       </c>
       <c r="AE7" t="n">
-        <v>381474.4165779603</v>
+        <v>490147.7662108515</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.727240995246149e-06</v>
+        <v>2.62869950797454e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.70052083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>345067.0336624653</v>
+        <v>443368.7513303976</v>
       </c>
     </row>
   </sheetData>
@@ -41514,28 +41514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>450.0391964640714</v>
+        <v>556.2000714534768</v>
       </c>
       <c r="AB2" t="n">
-        <v>615.7634829302433</v>
+        <v>761.0174755780083</v>
       </c>
       <c r="AC2" t="n">
-        <v>556.9958803488562</v>
+        <v>688.3870358035776</v>
       </c>
       <c r="AD2" t="n">
-        <v>450039.1964640714</v>
+        <v>556200.0714534768</v>
       </c>
       <c r="AE2" t="n">
-        <v>615763.4829302432</v>
+        <v>761017.4755780083</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.274912193946941e-06</v>
+        <v>1.903330048281612e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.69010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>556995.8803488562</v>
+        <v>688387.0358035776</v>
       </c>
     </row>
     <row r="3">
@@ -41620,28 +41620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>372.3700146827859</v>
+        <v>462.1131960201084</v>
       </c>
       <c r="AB3" t="n">
-        <v>509.4930818946202</v>
+        <v>632.2836617900797</v>
       </c>
       <c r="AC3" t="n">
-        <v>460.8677772366285</v>
+        <v>571.9393965245266</v>
       </c>
       <c r="AD3" t="n">
-        <v>372370.014682786</v>
+        <v>462113.1960201084</v>
       </c>
       <c r="AE3" t="n">
-        <v>509493.0818946202</v>
+        <v>632283.6617900797</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.482898895463353e-06</v>
+        <v>2.213835619189691e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.08333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>460867.7772366285</v>
+        <v>571939.3965245266</v>
       </c>
     </row>
     <row r="4">
@@ -41726,28 +41726,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>347.6552076572477</v>
+        <v>429.3175086961106</v>
       </c>
       <c r="AB4" t="n">
-        <v>475.6771925819452</v>
+        <v>587.4111555497743</v>
       </c>
       <c r="AC4" t="n">
-        <v>430.2792289390564</v>
+        <v>531.3494593008378</v>
       </c>
       <c r="AD4" t="n">
-        <v>347655.2076572477</v>
+        <v>429317.5086961106</v>
       </c>
       <c r="AE4" t="n">
-        <v>475677.1925819452</v>
+        <v>587411.1555497743</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.557636255188228e-06</v>
+        <v>2.325411822765877e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.02864583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>430279.2289390564</v>
+        <v>531349.4593008378</v>
       </c>
     </row>
     <row r="5">
@@ -41832,28 +41832,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>329.2862649932415</v>
+        <v>418.8587646214208</v>
       </c>
       <c r="AB5" t="n">
-        <v>450.5439948484954</v>
+        <v>573.1010404995596</v>
       </c>
       <c r="AC5" t="n">
-        <v>407.5447083226225</v>
+        <v>518.405081546643</v>
       </c>
       <c r="AD5" t="n">
-        <v>329286.2649932415</v>
+        <v>418858.7646214208</v>
       </c>
       <c r="AE5" t="n">
-        <v>450543.9948484954</v>
+        <v>573101.0404995596</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.599117879619839e-06</v>
+        <v>2.387340183485207e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.48177083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>407544.7083226225</v>
+        <v>518405.0815466431</v>
       </c>
     </row>
     <row r="6">
@@ -41938,28 +41938,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>322.3681231404056</v>
+        <v>403.9450833246969</v>
       </c>
       <c r="AB6" t="n">
-        <v>441.0782879585672</v>
+        <v>552.6954838041987</v>
       </c>
       <c r="AC6" t="n">
-        <v>398.9823952130659</v>
+        <v>499.9470025429086</v>
       </c>
       <c r="AD6" t="n">
-        <v>322368.1231404056</v>
+        <v>403945.0833246969</v>
       </c>
       <c r="AE6" t="n">
-        <v>441078.2879585671</v>
+        <v>552695.4838041987</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.621179362110151e-06</v>
+        <v>2.420276006620958e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.20833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>398982.3952130659</v>
+        <v>499947.0025429087</v>
       </c>
     </row>
     <row r="7">
@@ -42044,28 +42044,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>307.7808059305806</v>
+        <v>397.4385569047804</v>
       </c>
       <c r="AB7" t="n">
-        <v>421.1192770050685</v>
+        <v>543.7929673087821</v>
       </c>
       <c r="AC7" t="n">
-        <v>380.9282442523213</v>
+        <v>491.8941297270542</v>
       </c>
       <c r="AD7" t="n">
-        <v>307780.8059305806</v>
+        <v>397438.5569047804</v>
       </c>
       <c r="AE7" t="n">
-        <v>421119.2770050685</v>
+        <v>543792.967308782</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.637706607259677e-06</v>
+        <v>2.444949707647398e-06</v>
       </c>
       <c r="AG7" t="n">
         <v>20</v>
       </c>
       <c r="AH7" t="n">
-        <v>380928.2442523214</v>
+        <v>491894.1297270542</v>
       </c>
     </row>
     <row r="8">
@@ -42150,28 +42150,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>303.9560204711656</v>
+        <v>393.6137714453654</v>
       </c>
       <c r="AB8" t="n">
-        <v>415.8860368018715</v>
+        <v>538.5597271055849</v>
       </c>
       <c r="AC8" t="n">
-        <v>376.1944571492187</v>
+        <v>487.1603426239515</v>
       </c>
       <c r="AD8" t="n">
-        <v>303956.0204711656</v>
+        <v>393613.7714453654</v>
       </c>
       <c r="AE8" t="n">
-        <v>415886.0368018714</v>
+        <v>538559.7271055849</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.646485920132104e-06</v>
+        <v>2.458056437720804e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.89583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>376194.4571492187</v>
+        <v>487160.3426239515</v>
       </c>
     </row>
     <row r="9">
@@ -42256,28 +42256,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>300.6826411516287</v>
+        <v>382.3448526819407</v>
       </c>
       <c r="AB9" t="n">
-        <v>411.4072548055776</v>
+        <v>523.1410953038584</v>
       </c>
       <c r="AC9" t="n">
-        <v>372.1431238206411</v>
+        <v>473.2132434011961</v>
       </c>
       <c r="AD9" t="n">
-        <v>300682.6411516287</v>
+        <v>382344.8526819407</v>
       </c>
       <c r="AE9" t="n">
-        <v>411407.2548055776</v>
+        <v>523141.0953038584</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.655391011125913e-06</v>
+        <v>2.471350943296695e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.79166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>372143.1238206411</v>
+        <v>473213.243401196</v>
       </c>
     </row>
     <row r="10">
@@ -42362,28 +42362,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>301.100129807449</v>
+        <v>382.7623413377609</v>
       </c>
       <c r="AB10" t="n">
-        <v>411.9784812027705</v>
+        <v>523.7123217010513</v>
       </c>
       <c r="AC10" t="n">
-        <v>372.6598331722072</v>
+        <v>473.7299527527621</v>
       </c>
       <c r="AD10" t="n">
-        <v>301100.1298074491</v>
+        <v>382762.3413377609</v>
       </c>
       <c r="AE10" t="n">
-        <v>411978.4812027705</v>
+        <v>523712.3217010513</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.655240077380255e-06</v>
+        <v>2.471125612693713e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.79166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>372659.8331722072</v>
+        <v>473729.9527527621</v>
       </c>
     </row>
   </sheetData>
